--- a/Interpert_Data.xlsx
+++ b/Interpert_Data.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/ssoni7_emory_edu/Documents/Second_Year/Classes/ML/cs534-final-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{F82FD72D-358B-4246-BE1E-2B65DA431CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1D78BA9-29F0-40A9-BF91-062371B5DCDD}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{F82FD72D-358B-4246-BE1E-2B65DA431CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2CB6AF1D-5715-4EF8-AD00-DDDCAD997B53}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B371AADF-BBAA-4F46-A685-F4050E2E70CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B371AADF-BBAA-4F46-A685-F4050E2E70CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$C$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet4!$A$1:$C$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="387">
   <si>
     <t>V33</t>
   </si>
@@ -1305,6 +1306,42 @@
   <si>
     <t> 'V10</t>
   </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Feature Translated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest on school system debt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total salaries and wages - General administration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">School lunch revenues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructional equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payments to other school systems </t>
+  </si>
+  <si>
+    <t>Tuition fees from pupils, parents, and other private sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current operation expenditure - Business/central/other support services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total employee benefit payments - Instruction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current operation expenditure - School administration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct federal revenue - All other </t>
+  </si>
 </sst>
 </file>
 
@@ -1313,7 +1350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1382,12 +1419,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1396,7 +1444,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1418,9 +1466,23 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1989,37 +2051,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2035,7 +2067,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Beta </c:v>
+                  <c:v>Beta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2155,7 +2187,7 @@
             <c:numRef>
               <c:f>Sheet3!$B$2:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>47.394958000000003</c:v>
@@ -2280,17 +2312,14 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2303,10 +2332,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2330,21 +2356,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2362,10 +2433,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3562,16 +3630,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53066</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:colOff>372835</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3914,14 +3982,14 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="116.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>177</v>
       </c>
@@ -3943,7 +4011,7 @@
         <v>'TOTALREV'</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -3962,7 +4030,7 @@
         <v>'TOTALREV','TFEDREV'</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -3981,7 +4049,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV'</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -4000,7 +4068,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV'</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -4019,7 +4087,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP'</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -4038,7 +4106,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC'</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>183</v>
       </c>
@@ -4057,7 +4125,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST'</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -4076,7 +4144,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC'</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -4095,7 +4163,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH'</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -4114,7 +4182,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC'</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4133,7 +4201,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC','TCAPOUT'</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>188</v>
       </c>
@@ -4155,7 +4223,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC','TCAPOUT','Z32'</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -4174,7 +4242,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC','TCAPOUT','Z32','Z34'</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -4196,7 +4264,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC','TCAPOUT','Z32','Z34','_19H'</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -4212,7 +4280,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC','TCAPOUT','Z32','Z34','_19H','_21F'</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -4231,7 +4299,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC','TCAPOUT','Z32','Z34','_19H','_21F','_31F'</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -4250,7 +4318,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC','TCAPOUT','Z32','Z34','_19H','_21F','_31F','_41F'</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -4269,7 +4337,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC','TCAPOUT','Z32','Z34','_19H','_21F','_31F','_41F','_61V'</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>193</v>
       </c>
@@ -4288,7 +4356,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC','TCAPOUT','Z32','Z34','_19H','_21F','_31F','_41F','_61V','_66V'</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -4307,7 +4375,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC','TCAPOUT','Z32','Z34','_19H','_21F','_31F','_41F','_61V','_66V','W01'</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>195</v>
       </c>
@@ -4326,7 +4394,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC','TCAPOUT','Z32','Z34','_19H','_21F','_31F','_41F','_61V','_66V','W01','W31'</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>196</v>
       </c>
@@ -4345,7 +4413,7 @@
         <v>'TOTALREV','TFEDREV','TSTREV','TLOCREV','TOTALEXP','TCURELSC','TCURINST','TCURSSVC','TCUROTH','NONELSEC','TCAPOUT','Z32','Z34','_19H','_21F','_31F','_41F','_61V','_66V','W01','W31','W61'</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>197</v>
       </c>
@@ -4353,7 +4421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>198</v>
       </c>
@@ -4361,7 +4429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>199</v>
       </c>
@@ -4369,7 +4437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -4377,7 +4445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>201</v>
       </c>
@@ -4385,7 +4453,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -4393,7 +4461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>202</v>
       </c>
@@ -4404,12 +4472,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -4417,7 +4485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>203</v>
       </c>
@@ -4425,7 +4493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>204</v>
       </c>
@@ -4433,7 +4501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -4441,7 +4509,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>206</v>
       </c>
@@ -4449,7 +4517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -4457,7 +4525,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>208</v>
       </c>
@@ -4465,7 +4533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -4473,7 +4541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>210</v>
       </c>
@@ -4481,7 +4549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>211</v>
       </c>
@@ -4489,7 +4557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>212</v>
       </c>
@@ -4497,7 +4565,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>213</v>
       </c>
@@ -4505,7 +4573,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>214</v>
       </c>
@@ -4513,7 +4581,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>215</v>
       </c>
@@ -4521,7 +4589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -4529,7 +4597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75">
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>187</v>
       </c>
@@ -4537,7 +4605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>217</v>
       </c>
@@ -4548,12 +4616,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -4561,7 +4629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -4569,7 +4637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>218</v>
       </c>
@@ -4577,7 +4645,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>219</v>
       </c>
@@ -4585,7 +4653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>220</v>
       </c>
@@ -4593,7 +4661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>221</v>
       </c>
@@ -4601,7 +4669,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>222</v>
       </c>
@@ -4609,7 +4677,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>223</v>
       </c>
@@ -4617,7 +4685,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -4625,7 +4693,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -4633,7 +4701,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>225</v>
       </c>
@@ -4641,7 +4709,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>226</v>
       </c>
@@ -4649,7 +4717,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>227</v>
       </c>
@@ -4657,7 +4725,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>228</v>
       </c>
@@ -4665,7 +4733,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>229</v>
       </c>
@@ -4673,7 +4741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>230</v>
       </c>
@@ -4681,7 +4749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>231</v>
       </c>
@@ -4689,7 +4757,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>232</v>
       </c>
@@ -4697,7 +4765,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>233</v>
       </c>
@@ -4705,7 +4773,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>234</v>
       </c>
@@ -4713,7 +4781,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>235</v>
       </c>
@@ -4721,7 +4789,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>236</v>
       </c>
@@ -4732,7 +4800,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>237</v>
       </c>
@@ -4743,12 +4811,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -4759,12 +4827,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -4772,7 +4840,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -4780,7 +4848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -4788,7 +4856,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -4796,7 +4864,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -4804,7 +4872,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -4812,7 +4880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75">
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -4820,7 +4888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>243</v>
       </c>
@@ -4831,12 +4899,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -4844,7 +4912,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -4852,7 +4920,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>244</v>
       </c>
@@ -4860,7 +4928,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>245</v>
       </c>
@@ -4868,7 +4936,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>246</v>
       </c>
@@ -4876,7 +4944,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>247</v>
       </c>
@@ -4884,7 +4952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>248</v>
       </c>
@@ -4892,7 +4960,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>249</v>
       </c>
@@ -4900,7 +4968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>250</v>
       </c>
@@ -4908,7 +4976,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>251</v>
       </c>
@@ -4916,7 +4984,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>252</v>
       </c>
@@ -4924,7 +4992,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>253</v>
       </c>
@@ -4932,7 +5000,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>254</v>
       </c>
@@ -4940,7 +5008,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>255</v>
       </c>
@@ -4948,7 +5016,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>256</v>
       </c>
@@ -4956,7 +5024,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>257</v>
       </c>
@@ -4964,7 +5032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>258</v>
       </c>
@@ -4972,7 +5040,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75">
+    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>187</v>
       </c>
@@ -4980,7 +5048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -4991,12 +5059,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -5004,7 +5072,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -5012,7 +5080,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>259</v>
       </c>
@@ -5020,7 +5088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>260</v>
       </c>
@@ -5028,7 +5096,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>261</v>
       </c>
@@ -5036,7 +5104,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75">
+    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>187</v>
       </c>
@@ -5044,7 +5112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -5055,12 +5123,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -5068,7 +5136,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -5076,7 +5144,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>263</v>
       </c>
@@ -5084,7 +5152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>264</v>
       </c>
@@ -5092,7 +5160,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75">
+    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>187</v>
       </c>
@@ -5100,7 +5168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>265</v>
       </c>
@@ -5111,12 +5179,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -5124,7 +5192,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -5132,7 +5200,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>266</v>
       </c>
@@ -5140,7 +5208,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>267</v>
       </c>
@@ -5148,7 +5216,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>268</v>
       </c>
@@ -5156,7 +5224,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>269</v>
       </c>
@@ -5164,7 +5232,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75">
+    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>187</v>
       </c>
@@ -5172,7 +5240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -5180,7 +5248,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>271</v>
       </c>
@@ -5188,7 +5256,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>272</v>
       </c>
@@ -5196,7 +5264,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>273</v>
       </c>
@@ -5204,7 +5272,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>274</v>
       </c>
@@ -5215,7 +5283,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -5223,7 +5291,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>275</v>
       </c>
@@ -5231,7 +5299,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>276</v>
       </c>
@@ -5239,7 +5307,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>277</v>
       </c>
@@ -5247,7 +5315,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>278</v>
       </c>
@@ -5255,7 +5323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>279</v>
       </c>
@@ -5263,7 +5331,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>280</v>
       </c>
@@ -5271,7 +5339,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>281</v>
       </c>
@@ -5279,7 +5347,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>282</v>
       </c>
@@ -5287,7 +5355,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>283</v>
       </c>
@@ -5298,7 +5366,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -5306,7 +5374,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>284</v>
       </c>
@@ -5314,7 +5382,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>285</v>
       </c>
@@ -5322,7 +5390,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>286</v>
       </c>
@@ -5330,7 +5398,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>287</v>
       </c>
@@ -5338,7 +5406,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>288</v>
       </c>
@@ -5346,7 +5414,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>289</v>
       </c>
@@ -5354,7 +5422,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>290</v>
       </c>
@@ -5362,7 +5430,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>291</v>
       </c>
@@ -5370,7 +5438,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>292</v>
       </c>
@@ -5378,7 +5446,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>293</v>
       </c>
@@ -5389,7 +5457,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>165</v>
       </c>
@@ -5400,7 +5468,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>294</v>
       </c>
@@ -5411,7 +5479,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -5422,7 +5490,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>295</v>
       </c>
@@ -5433,7 +5501,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>296</v>
       </c>
@@ -5444,7 +5512,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>297</v>
       </c>
@@ -5455,7 +5523,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>172</v>
       </c>
@@ -5466,7 +5534,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>298</v>
       </c>
@@ -5494,14 +5562,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5512,7 +5580,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>283</v>
       </c>
@@ -5524,7 +5592,7 @@
         <v xml:space="preserve">   Total employee benefit payments </v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>248</v>
       </c>
@@ -5536,7 +5604,7 @@
         <v xml:space="preserve">   Current operation expenditure - Business/central/other support services </v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5548,7 +5616,7 @@
         <v>TOTAL CURRENT SPENDING FOR OTHER ELEMENTARY-SECONDARY PROGRAMS</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>245</v>
       </c>
@@ -5560,7 +5628,7 @@
         <v xml:space="preserve">   Current operation expenditure - School administration </v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -5572,7 +5640,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Child nutrition programs </v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -5584,7 +5652,7 @@
         <v>Total Revenue from Federal Sources</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>236</v>
       </c>
@@ -5596,7 +5664,7 @@
         <v>TOTAL ELEMENTARY-SECONDARY EXPENDITURE</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -5608,7 +5676,7 @@
         <v xml:space="preserve">   Construction </v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>212</v>
       </c>
@@ -5620,7 +5688,7 @@
         <v xml:space="preserve">   All other revenues from state sources </v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -5632,7 +5700,7 @@
         <v xml:space="preserve">   Cash and deposits, held at end of fiscal year - Bond funds </v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -5644,7 +5712,7 @@
         <v xml:space="preserve">   General sales or gross receipts taxes </v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>274</v>
       </c>
@@ -5656,7 +5724,7 @@
         <v xml:space="preserve">   Total salaries and wages </v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>297</v>
       </c>
@@ -5668,7 +5736,7 @@
         <v xml:space="preserve">   Cash and deposits, held at end of fiscal year - Debt service funds </v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -5680,7 +5748,7 @@
         <v>TOTAL CURRENT SPENDING FOR SUPPORT SERVICES</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>237</v>
       </c>
@@ -5692,7 +5760,7 @@
         <v>TOTAL CURRENT SPENDING FOR ELEMENTARY-SECONDARY PROGRAMS</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>298</v>
       </c>
@@ -5704,7 +5772,7 @@
         <v xml:space="preserve">   Cash and deposits, held at end of fiscal year - Other funds </v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -5716,7 +5784,7 @@
         <v>TOTAL ELEMENTARY-SECONDARY REVENUE</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -5728,7 +5796,7 @@
         <v xml:space="preserve">   Instructional equipment </v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>202</v>
       </c>
@@ -5740,7 +5808,7 @@
         <v>Total Revenue from State Sources</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -5752,7 +5820,7 @@
         <v xml:space="preserve">   Long-term debt outstanding at end of fiscal year </v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>293</v>
       </c>
@@ -5764,7 +5832,7 @@
         <v xml:space="preserve">   Long-term debt outstanding at beginning of the fiscal year </v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -5776,7 +5844,7 @@
         <v xml:space="preserve">   Property taxes </v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>295</v>
       </c>
@@ -5788,7 +5856,7 @@
         <v xml:space="preserve">   Short-term debt outstanding at beginning of the fiscal year </v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5800,7 +5868,7 @@
         <v>   General formula assistance</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>214</v>
       </c>
@@ -5812,7 +5880,7 @@
         <v xml:space="preserve">   State revenue - Nonspecified </v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -5824,7 +5892,7 @@
         <v xml:space="preserve">Fall Membership </v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>235</v>
       </c>
@@ -5836,7 +5904,7 @@
         <v xml:space="preserve">   Miscellaneous other local revenues </v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>244</v>
       </c>
@@ -5848,7 +5916,7 @@
         <v xml:space="preserve">   Current operation expenditure - General administration </v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>272</v>
       </c>
@@ -5873,23 +5941,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65454753-C424-4853-8BB7-6EEE95C64FF9}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3"/>
@@ -5901,15 +5969,15 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="24">
         <v>47.394958000000003</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="14" t="str">
         <f>VLOOKUP(A2,Sheet2!A:B,2,FALSE)</f>
         <v>   Tuition fees from pupils, parents, and other private sources</v>
@@ -5919,15 +5987,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="24">
         <v>28.260909999999999</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="14" t="str">
         <f>VLOOKUP(A3,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Current operation expenditure - Business/central/other support services </v>
@@ -5937,15 +6005,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="24">
         <v>27.247523000000001</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="14" t="str">
         <f>VLOOKUP(A4,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Total employee benefit payments - Instruction </v>
@@ -5956,15 +6024,15 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="24">
         <v>25.289885999999999</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="14" t="str">
         <f>VLOOKUP(A5,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Current operation expenditure - School administration </v>
@@ -5974,15 +6042,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="24">
         <v>24.673024000000002</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="14" t="str">
         <f>VLOOKUP(A6,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Direct federal revenue - All other </v>
@@ -5992,15 +6060,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="24">
         <v>23.555478000000001</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="14" t="str">
         <f>VLOOKUP(A7,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Current operation expenditure - Enterprise operations </v>
@@ -6014,15 +6082,15 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="24">
         <v>13.723475000000001</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="14" t="str">
         <f>VLOOKUP(A8,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Current operation expenditure - Food services </v>
@@ -6036,15 +6104,15 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="24">
         <v>10.962329</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="14" t="str">
         <f>VLOOKUP(A9,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Current operation expenditure - Operation and maintenance of plant </v>
@@ -6058,15 +6126,15 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="24">
         <v>10.028104000000001</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="14" t="str">
         <f>VLOOKUP(A10,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Federal revenue through the state - Child nutrition programs </v>
@@ -6080,15 +6148,15 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="24">
         <v>5.2874860000000004</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="14" t="str">
         <f>VLOOKUP(A11,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   All other revenues from state sources </v>
@@ -6102,15 +6170,15 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="24">
         <v>4.1240500000000004</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="14" t="str">
         <f>VLOOKUP(A12,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Capital outlay and debt service programs </v>
@@ -6124,15 +6192,15 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="24">
         <v>4.098141</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="14" t="str">
         <f>VLOOKUP(A13,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Direct federal revenue - Impact aid (P.L. 81-815 and 81-874) </v>
@@ -6146,15 +6214,15 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="24">
         <v>3.3618839999999999</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="14" t="str">
         <f>VLOOKUP(A14,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Total salaries and wages - Business/central/other support services </v>
@@ -6167,15 +6235,15 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="24">
         <v>3.3474979999999999</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="14" t="str">
         <f>VLOOKUP(A15,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Revenue from other school systems </v>
@@ -6185,15 +6253,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="24">
         <v>2.4558</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="14" t="str">
         <f>VLOOKUP(A16,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Current operation expenditure - Instruction </v>
@@ -6203,15 +6271,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="24">
         <v>2.4205960000000002</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="14" t="str">
         <f>VLOOKUP(A17,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Federal revenue - Nonspecified </v>
@@ -6221,15 +6289,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="24">
         <v>2.2232889999999998</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="14" t="str">
         <f>VLOOKUP(A18,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Total salaries and wages - Operation and maintenance of plant </v>
@@ -6239,15 +6307,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="24">
         <v>2.128536</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="14" t="str">
         <f>VLOOKUP(A19,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Construction </v>
@@ -6257,15 +6325,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="24">
         <v>1.275914</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="14" t="str">
         <f>VLOOKUP(A20,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   Interest earnings </v>
@@ -6275,15 +6343,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="24">
         <v>1.0240990000000001</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="14" t="str">
         <f>VLOOKUP(A21,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   General sales or gross receipts taxes </v>
@@ -6293,15 +6361,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="24">
         <v>1.2692999999999999E-2</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="14" t="str">
         <f>VLOOKUP(A22,Sheet2!A:B,2,FALSE)</f>
         <v xml:space="preserve">   State revenue - Nonspecified </v>
@@ -6311,11 +6379,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="25">
         <v>-0.54375799999999996</v>
       </c>
       <c r="C23" s="3"/>
@@ -6329,11 +6397,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="25">
         <v>-0.70487</v>
       </c>
       <c r="C24" s="3"/>
@@ -6347,11 +6415,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="25">
         <v>-3.6157360000000001</v>
       </c>
       <c r="C25" s="3"/>
@@ -6365,11 +6433,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="25">
         <v>-6.9718369999999998</v>
       </c>
       <c r="C26" s="3"/>
@@ -6383,11 +6451,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="25">
         <v>-11.218942</v>
       </c>
       <c r="C27" s="3"/>
@@ -6401,11 +6469,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="25">
         <v>-16.611231</v>
       </c>
       <c r="C28" s="10"/>
@@ -6419,11 +6487,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="25">
         <v>-32.336185999999998</v>
       </c>
       <c r="C29" s="10"/>
@@ -6437,11 +6505,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="25">
         <v>-36.923639000000001</v>
       </c>
       <c r="C30" s="10"/>
@@ -6455,11 +6523,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="25">
         <v>-37.808768000000001</v>
       </c>
       <c r="C31" s="3"/>
@@ -6473,11 +6541,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="25">
         <v>-39.438878000000003</v>
       </c>
       <c r="C32" s="3"/>
@@ -6491,170 +6559,170 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="3"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="3"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="3"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="3"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="8"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="6"/>
@@ -6675,6 +6743,150 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0809E0-5460-42E1-9CA4-40646712A51E}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="28">
+        <v>47.394958000000003</v>
+      </c>
+      <c r="E2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2" s="28">
+        <v>-16.611231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="28">
+        <v>28.260909999999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" s="28">
+        <v>-32.336185999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="28">
+        <v>27.247523000000001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="28">
+        <v>-36.923639000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="28">
+        <v>25.289885999999999</v>
+      </c>
+      <c r="E5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" s="28">
+        <v>-37.808768000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="28">
+        <v>24.673024000000002</v>
+      </c>
+      <c r="E6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G6" s="28">
+        <v>-39.438878000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631150A6-625A-4DF8-864D-F56EACE4A23E}">
   <dimension ref="A1:D132"/>
   <sheetViews>
@@ -6682,14 +6894,14 @@
       <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="18"/>
     <col min="4" max="4" width="72.140625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>305</v>
       </c>
@@ -6703,7 +6915,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>304</v>
       </c>
@@ -6714,7 +6926,7 @@
         <v>2.30337667992218</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>188</v>
       </c>
@@ -6729,7 +6941,7 @@
         <v>TOTAL ELEMENTARY-SECONDARY REVENUE</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>236</v>
       </c>
@@ -6744,7 +6956,7 @@
         <v>TOTAL ELEMENTARY-SECONDARY EXPENDITURE</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>237</v>
       </c>
@@ -6759,7 +6971,7 @@
         <v>TOTAL CURRENT SPENDING FOR ELEMENTARY-SECONDARY PROGRAMS</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>274</v>
       </c>
@@ -6774,7 +6986,7 @@
         <v xml:space="preserve">   Total salaries and wages </v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>202</v>
       </c>
@@ -6789,7 +7001,7 @@
         <v>Total Revenue from State Sources</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>238</v>
       </c>
@@ -6804,7 +7016,7 @@
         <v>TOTAL CURRENT SPENDING FOR INSTRUCTION</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
@@ -6819,7 +7031,7 @@
         <v xml:space="preserve">   Current operation expenditure - Instruction </v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -6834,7 +7046,7 @@
         <v>   General formula assistance</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>142</v>
       </c>
@@ -6849,7 +7061,7 @@
         <v xml:space="preserve">   Total salaries and wages - Instruction </v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>217</v>
       </c>
@@ -6864,7 +7076,7 @@
         <v xml:space="preserve">Total Revenue from Local Sources </v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -6879,7 +7091,7 @@
         <v xml:space="preserve">   Long-term debt outstanding at end of fiscal year </v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>293</v>
       </c>
@@ -6894,7 +7106,7 @@
         <v xml:space="preserve">   Long-term debt outstanding at beginning of the fiscal year </v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>243</v>
       </c>
@@ -6909,7 +7121,7 @@
         <v>TOTAL CURRENT SPENDING FOR SUPPORT SERVICES</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -6924,7 +7136,7 @@
         <v xml:space="preserve">   Property taxes </v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>283</v>
       </c>
@@ -6939,7 +7151,7 @@
         <v xml:space="preserve">   Total employee benefit payments </v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>298</v>
       </c>
@@ -6954,7 +7166,7 @@
         <v xml:space="preserve">   Cash and deposits, held at end of fiscal year - Other funds </v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>172</v>
       </c>
@@ -6969,7 +7181,7 @@
         <v xml:space="preserve">   Cash and deposits, held at end of fiscal year - Bond funds </v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>265</v>
       </c>
@@ -6984,7 +7196,7 @@
         <v>TOTAL CAPITAL OUTLAY EXPENDITURE</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>153</v>
       </c>
@@ -6999,7 +7211,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Instruction </v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>129</v>
       </c>
@@ -7014,7 +7226,7 @@
         <v xml:space="preserve">   Construction </v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>189</v>
       </c>
@@ -7029,7 +7241,7 @@
         <v>Total Revenue from Federal Sources</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>218</v>
       </c>
@@ -7044,7 +7256,7 @@
         <v xml:space="preserve">   General sales or gross receipts taxes </v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>246</v>
       </c>
@@ -7059,7 +7271,7 @@
         <v xml:space="preserve">   Current operation expenditure - Operation and maintenance of plant </v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
@@ -7074,7 +7286,7 @@
         <v>TOTAL CURRENT SPENDING FOR OTHER ELEMENTARY-SECONDARY PROGRAMS</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>112</v>
       </c>
@@ -7089,7 +7301,7 @@
         <v xml:space="preserve">   Current operation expenditure - Food services </v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>245</v>
       </c>
@@ -7104,7 +7316,7 @@
         <v xml:space="preserve">   Current operation expenditure - School administration </v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>93</v>
       </c>
@@ -7119,7 +7331,7 @@
         <v xml:space="preserve">   Current operation expenditure - Instructional staff support </v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>214</v>
       </c>
@@ -7134,7 +7346,7 @@
         <v xml:space="preserve">   State revenue - Nonspecified </v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>212</v>
       </c>
@@ -7149,7 +7361,7 @@
         <v xml:space="preserve">   All other revenues from state sources </v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>198</v>
       </c>
@@ -7164,7 +7376,7 @@
         <v xml:space="preserve">   Federal revenue - Nonspecified </v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -7179,7 +7391,7 @@
         <v xml:space="preserve">   Current operation expenditure - Pupil support </v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>278</v>
       </c>
@@ -7194,7 +7406,7 @@
         <v xml:space="preserve">   Total salaries and wages - School administration </v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>165</v>
       </c>
@@ -7209,7 +7421,7 @@
         <v xml:space="preserve">   Long-term debt issued during the fiscal year </v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>247</v>
       </c>
@@ -7224,7 +7436,7 @@
         <v xml:space="preserve">   Current operation expenditure - Student transportation </v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>276</v>
       </c>
@@ -7239,7 +7451,7 @@
         <v xml:space="preserve">   Total salaries and wages - Instructional staff support </v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>297</v>
       </c>
@@ -7254,7 +7466,7 @@
         <v xml:space="preserve">   Cash and deposits, held at end of fiscal year - Debt service funds </v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>275</v>
       </c>
@@ -7269,7 +7481,7 @@
         <v xml:space="preserve">   Total salaries and wages - Pupil support </v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>294</v>
       </c>
@@ -7284,7 +7496,7 @@
         <v xml:space="preserve">   Long-term debt retired during the fiscal year </v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>197</v>
       </c>
@@ -7299,7 +7511,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Child nutrition programs </v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>279</v>
       </c>
@@ -7314,7 +7526,7 @@
         <v xml:space="preserve">   Total salaries and wages - Operation and maintenance of plant </v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>280</v>
       </c>
@@ -7329,7 +7541,7 @@
         <v xml:space="preserve">   Total salaries and wages - Student transportation </v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>282</v>
       </c>
@@ -7344,7 +7556,7 @@
         <v xml:space="preserve">   Total salaries and wages - Food services </v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>225</v>
       </c>
@@ -7359,7 +7571,7 @@
         <v xml:space="preserve">   School lunch revenues </v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>244</v>
       </c>
@@ -7374,7 +7586,7 @@
         <v xml:space="preserve">   Current operation expenditure - General administration </v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>248</v>
       </c>
@@ -7389,7 +7601,7 @@
         <v xml:space="preserve">   Current operation expenditure - Business/central/other support services </v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>273</v>
       </c>
@@ -7404,7 +7616,7 @@
         <v xml:space="preserve">   Interest on school system debt </v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>235</v>
       </c>
@@ -7419,7 +7631,7 @@
         <v xml:space="preserve">   Miscellaneous other local revenues </v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>232</v>
       </c>
@@ -7434,7 +7646,7 @@
         <v xml:space="preserve">   Interest earnings </v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>267</v>
       </c>
@@ -7449,7 +7661,7 @@
         <v xml:space="preserve">   Other equipment </v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>215</v>
       </c>
@@ -7464,7 +7676,7 @@
         <v xml:space="preserve">   State payments on behalf - Benefits </v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>210</v>
       </c>
@@ -7479,7 +7691,7 @@
         <v xml:space="preserve">   Capital outlay and debt service programs </v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>287</v>
       </c>
@@ -7494,7 +7706,7 @@
         <v xml:space="preserve">   Total employee benefit payments - School administration </v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>266</v>
       </c>
@@ -7509,7 +7721,7 @@
         <v xml:space="preserve">   Instructional equipment </v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>277</v>
       </c>
@@ -7524,7 +7736,7 @@
         <v xml:space="preserve">   Total salaries and wages - General administration </v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>281</v>
       </c>
@@ -7539,7 +7751,7 @@
         <v xml:space="preserve">   Total salaries and wages - Business/central/other support services </v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>223</v>
       </c>
@@ -7554,7 +7766,7 @@
         <v xml:space="preserve">   Revenue from cities and counties </v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>285</v>
       </c>
@@ -7569,7 +7781,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Instructional staff </v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>284</v>
       </c>
@@ -7584,7 +7796,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Pupil support </v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>190</v>
       </c>
@@ -7599,7 +7811,7 @@
         <v>   Federal revenue through the state - Title I</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>295</v>
       </c>
@@ -7614,7 +7826,7 @@
         <v xml:space="preserve">   Short-term debt outstanding at beginning of the fiscal year </v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>288</v>
       </c>
@@ -7629,7 +7841,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Operation and maintenance of plant </v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>289</v>
       </c>
@@ -7644,7 +7856,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Student transportation </v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>296</v>
       </c>
@@ -7659,7 +7871,7 @@
         <v xml:space="preserve">   Short-term debt outstanding at end of the fiscal year </v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>291</v>
       </c>
@@ -7674,7 +7886,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Food services </v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>268</v>
       </c>
@@ -7689,7 +7901,7 @@
         <v xml:space="preserve">   Nonspecified equipment </v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>272</v>
       </c>
@@ -7704,7 +7916,7 @@
         <v xml:space="preserve">   Payments to other school systems </v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>229</v>
       </c>
@@ -7719,7 +7931,7 @@
         <v xml:space="preserve">   Other sales and service revenues </v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>131</v>
       </c>
@@ -7734,7 +7946,7 @@
         <v xml:space="preserve">   Purchase of land and existing structures </v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>209</v>
       </c>
@@ -7749,7 +7961,7 @@
         <v xml:space="preserve">   School lunch programs </v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>262</v>
       </c>
@@ -7764,7 +7976,7 @@
         <v>TOTAL CURRENT SPENDING FOR NONELEMENTARY-SECONDARY PROGRAMS</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>253</v>
       </c>
@@ -7779,7 +7991,7 @@
         <v xml:space="preserve">   State payments on behalf - School administration benefits </v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>290</v>
       </c>
@@ -7794,7 +8006,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Business/central/other support services </v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>191</v>
       </c>
@@ -7809,7 +8021,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Children with disabilities - IDEA </v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>286</v>
       </c>
@@ -7824,7 +8036,7 @@
         <v xml:space="preserve">   Total employee benefit payments - General administration </v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>251</v>
       </c>
@@ -7839,7 +8051,7 @@
         <v xml:space="preserve">   State payments on behalf - Instructional staff support benefits </v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>121</v>
       </c>
@@ -7854,7 +8066,7 @@
         <v xml:space="preserve">   Current operation expenditure - Community services </v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>250</v>
       </c>
@@ -7869,7 +8081,7 @@
         <v xml:space="preserve">   State payments on behalf - Pupil support benefits </v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>254</v>
       </c>
@@ -7884,7 +8096,7 @@
         <v xml:space="preserve">   State payments on behalf - Operation and maintenance of plant benefits </v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>123</v>
       </c>
@@ -7899,7 +8111,7 @@
         <v xml:space="preserve">   Current operation expenditure - Adult education </v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>255</v>
       </c>
@@ -7914,7 +8126,7 @@
         <v xml:space="preserve">   State payments on behalf - Student transportation benefits </v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>224</v>
       </c>
@@ -7929,7 +8141,7 @@
         <v>   Tuition fees from pupils, parents, and other private sources</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>201</v>
       </c>
@@ -7944,7 +8156,7 @@
         <v xml:space="preserve">   Direct federal revenue - All other </v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>199</v>
       </c>
@@ -7959,7 +8171,7 @@
         <v xml:space="preserve">   Direct federal revenue - Impact aid (P.L. 81-815 and 81-874) </v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>302</v>
       </c>
@@ -7974,7 +8186,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>222</v>
       </c>
@@ -7989,7 +8201,7 @@
         <v xml:space="preserve">   Revenue from other school systems </v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>114</v>
       </c>
@@ -8004,7 +8216,7 @@
         <v xml:space="preserve">   Current operation expenditure - Enterprise operations </v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>194</v>
       </c>
@@ -8019,7 +8231,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Vocational and technical education </v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>256</v>
       </c>
@@ -8034,7 +8246,7 @@
         <v xml:space="preserve">   State payments on behalf - Business/central/other support services benefits </v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>252</v>
       </c>
@@ -8049,7 +8261,7 @@
         <v xml:space="preserve">   State payments on behalf - General administration benefits </v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>193</v>
       </c>
@@ -8064,7 +8276,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Safe and drug-free schools </v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>192</v>
       </c>
@@ -8079,7 +8291,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Math, science, and teacher quality </v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>301</v>
       </c>
@@ -8094,7 +8306,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>227</v>
       </c>
@@ -8109,7 +8321,7 @@
         <v xml:space="preserve">   District activity receipts </v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>292</v>
       </c>
@@ -8124,7 +8336,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Enterprise operations </v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>239</v>
       </c>
@@ -8139,7 +8351,7 @@
         <v xml:space="preserve">   Own retirement system transfer - Instruction </v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>195</v>
       </c>
@@ -8154,7 +8366,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Bilingual education </v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>196</v>
       </c>
@@ -8169,7 +8381,7 @@
         <v xml:space="preserve">   Federal revenue through the state - All other </v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>200</v>
       </c>
@@ -8184,7 +8396,7 @@
         <v xml:space="preserve">   Direct federal revenue - Native American (Indian) education </v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>204</v>
       </c>
@@ -8199,7 +8411,7 @@
         <v xml:space="preserve">   Special education programs </v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>211</v>
       </c>
@@ -8214,7 +8426,7 @@
         <v xml:space="preserve">   Transportation programs </v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>203</v>
       </c>
@@ -8229,7 +8441,7 @@
         <v xml:space="preserve">   Staff improvement programs </v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>205</v>
       </c>
@@ -8244,7 +8456,7 @@
         <v xml:space="preserve">   Compensatory and basic skills attainment programs </v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>208</v>
       </c>
@@ -8259,7 +8471,7 @@
         <v xml:space="preserve">   Vocational education programs </v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>206</v>
       </c>
@@ -8274,7 +8486,7 @@
         <v xml:space="preserve">   Bilingual education programs </v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>207</v>
       </c>
@@ -8289,7 +8501,7 @@
         <v xml:space="preserve">   Gifted and talented programs </v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>216</v>
       </c>
@@ -8304,7 +8516,7 @@
         <v xml:space="preserve">   State payments on behalf - Nonbenefits </v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>213</v>
       </c>
@@ -8319,7 +8531,7 @@
         <v xml:space="preserve">   Census state, NCES local revenue </v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>219</v>
       </c>
@@ -8334,7 +8546,7 @@
         <v xml:space="preserve">   Public utility taxes </v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>220</v>
       </c>
@@ -8349,7 +8561,7 @@
         <v xml:space="preserve">   Individual and corporate income taxes </v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>221</v>
       </c>
@@ -8364,7 +8576,7 @@
         <v xml:space="preserve">   All other taxes </v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>54</v>
       </c>
@@ -8379,7 +8591,7 @@
         <v xml:space="preserve">   Parent government contributions </v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>176</v>
       </c>
@@ -8394,7 +8606,7 @@
         <v xml:space="preserve">   Transportation fees from pupils, parents, and other private sources </v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>226</v>
       </c>
@@ -8409,7 +8621,7 @@
         <v xml:space="preserve">   Textbook sales and rentals </v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>228</v>
       </c>
@@ -8424,7 +8636,7 @@
         <v xml:space="preserve">   Student fees, nonspecified </v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>83</v>
       </c>
@@ -8439,7 +8651,7 @@
         <v>   State payments on behalf - Instruction benefits</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>249</v>
       </c>
@@ -8454,7 +8666,7 @@
         <v xml:space="preserve">   Current operation expenditure - Nonspecified support services </v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>259</v>
       </c>
@@ -8469,7 +8681,7 @@
         <v xml:space="preserve">   Current operation expenditure - Other elementary-secondary programs </v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>260</v>
       </c>
@@ -8484,7 +8696,7 @@
         <v xml:space="preserve">   State payments on behalf - Other benefits </v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>263</v>
       </c>
@@ -8499,7 +8711,7 @@
         <v xml:space="preserve">   Current operation expenditure - Other nonelementary-secondary programs </v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>270</v>
       </c>
@@ -8514,7 +8726,7 @@
         <v>   Payments to state governments</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>271</v>
       </c>
@@ -8529,7 +8741,7 @@
         <v xml:space="preserve">   Payments to local governments </v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>241</v>
       </c>
@@ -8544,7 +8756,7 @@
         <v xml:space="preserve">   Exhibit - Payments to private schools </v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>242</v>
       </c>
@@ -8559,7 +8771,7 @@
         <v xml:space="preserve">   Exhibit - Payments to charter schools </v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>303</v>
       </c>
@@ -8574,7 +8786,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>240</v>
       </c>
@@ -8589,7 +8801,7 @@
         <v xml:space="preserve">   State payments on behalf - Instruction nonbenefits </v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>257</v>
       </c>
@@ -8604,7 +8816,7 @@
         <v xml:space="preserve">   Own retirement system transfer - Support services </v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>258</v>
       </c>
@@ -8619,7 +8831,7 @@
         <v xml:space="preserve">   State payments on behalf - Support services, nonbenefits </v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>261</v>
       </c>
@@ -8634,7 +8846,7 @@
         <v xml:space="preserve">   State payments on behalf - Noninstructional and nonbenefits </v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>264</v>
       </c>
@@ -8649,7 +8861,7 @@
         <v xml:space="preserve">   State payments on behalf - Nonelementary-secondary programs </v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>269</v>
       </c>
@@ -8672,7 +8884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8572D127-4B0A-4116-AA41-3B81C4601F38}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C132"/>
@@ -8681,13 +8893,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>305</v>
       </c>
@@ -8698,7 +8910,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>188</v>
       </c>
@@ -8710,7 +8922,7 @@
         <v>TOTAL ELEMENTARY-SECONDARY REVENUE</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>189</v>
       </c>
@@ -8722,7 +8934,7 @@
         <v>Total Revenue from Federal Sources</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -8734,7 +8946,7 @@
         <v>   Federal revenue through the state - Title I</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -8746,7 +8958,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Children with disabilities - IDEA </v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>197</v>
       </c>
@@ -8758,7 +8970,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Child nutrition programs </v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -8770,7 +8982,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Math, science, and teacher quality </v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>193</v>
       </c>
@@ -8782,7 +8994,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Safe and drug-free schools </v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -8794,7 +9006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -8806,7 +9018,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Vocational and technical education </v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>196</v>
       </c>
@@ -8818,7 +9030,7 @@
         <v xml:space="preserve">   Federal revenue through the state - All other </v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>198</v>
       </c>
@@ -8830,7 +9042,7 @@
         <v xml:space="preserve">   Federal revenue - Nonspecified </v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -8842,7 +9054,7 @@
         <v xml:space="preserve">   Direct federal revenue - Impact aid (P.L. 81-815 and 81-874) </v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>195</v>
       </c>
@@ -8854,7 +9066,7 @@
         <v xml:space="preserve">   Federal revenue through the state - Bilingual education </v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -8866,7 +9078,7 @@
         <v xml:space="preserve">   Direct federal revenue - Native American (Indian) education </v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>201</v>
       </c>
@@ -8878,7 +9090,7 @@
         <v xml:space="preserve">   Direct federal revenue - All other </v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>202</v>
       </c>
@@ -8890,7 +9102,7 @@
         <v>Total Revenue from State Sources</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>36</v>
       </c>
@@ -8902,7 +9114,7 @@
         <v>   General formula assistance</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -8914,7 +9126,7 @@
         <v xml:space="preserve">   Special education programs </v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>211</v>
       </c>
@@ -8926,7 +9138,7 @@
         <v xml:space="preserve">   Transportation programs </v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -8938,7 +9150,7 @@
         <v xml:space="preserve">   Staff improvement programs </v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -8950,7 +9162,7 @@
         <v xml:space="preserve">   Compensatory and basic skills attainment programs </v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -8962,7 +9174,7 @@
         <v xml:space="preserve">   Vocational education programs </v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>210</v>
       </c>
@@ -8974,7 +9186,7 @@
         <v xml:space="preserve">   Capital outlay and debt service programs </v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>206</v>
       </c>
@@ -8986,7 +9198,7 @@
         <v xml:space="preserve">   Bilingual education programs </v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -8998,7 +9210,7 @@
         <v xml:space="preserve">   Gifted and talented programs </v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>209</v>
       </c>
@@ -9010,7 +9222,7 @@
         <v xml:space="preserve">   School lunch programs </v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>212</v>
       </c>
@@ -9022,7 +9234,7 @@
         <v xml:space="preserve">   All other revenues from state sources </v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>215</v>
       </c>
@@ -9034,7 +9246,7 @@
         <v xml:space="preserve">   State payments on behalf - Benefits </v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>216</v>
       </c>
@@ -9046,7 +9258,7 @@
         <v xml:space="preserve">   State payments on behalf - Nonbenefits </v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>214</v>
       </c>
@@ -9058,7 +9270,7 @@
         <v xml:space="preserve">   State revenue - Nonspecified </v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>213</v>
       </c>
@@ -9070,7 +9282,7 @@
         <v xml:space="preserve">   Census state, NCES local revenue </v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>217</v>
       </c>
@@ -9082,7 +9294,7 @@
         <v xml:space="preserve">Total Revenue from Local Sources </v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>3</v>
       </c>
@@ -9094,7 +9306,7 @@
         <v xml:space="preserve">   Property taxes </v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>218</v>
       </c>
@@ -9106,7 +9318,7 @@
         <v xml:space="preserve">   General sales or gross receipts taxes </v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -9118,7 +9330,7 @@
         <v xml:space="preserve">   Public utility taxes </v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>220</v>
       </c>
@@ -9130,7 +9342,7 @@
         <v xml:space="preserve">   Individual and corporate income taxes </v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>221</v>
       </c>
@@ -9142,7 +9354,7 @@
         <v xml:space="preserve">   All other taxes </v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -9154,7 +9366,7 @@
         <v xml:space="preserve">   Parent government contributions </v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>223</v>
       </c>
@@ -9166,7 +9378,7 @@
         <v xml:space="preserve">   Revenue from cities and counties </v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>222</v>
       </c>
@@ -9178,7 +9390,7 @@
         <v xml:space="preserve">   Revenue from other school systems </v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -9190,7 +9402,7 @@
         <v>   Tuition fees from pupils, parents, and other private sources</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>176</v>
       </c>
@@ -9202,7 +9414,7 @@
         <v xml:space="preserve">   Transportation fees from pupils, parents, and other private sources </v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>225</v>
       </c>
@@ -9214,7 +9426,7 @@
         <v xml:space="preserve">   School lunch revenues </v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>226</v>
       </c>
@@ -9226,7 +9438,7 @@
         <v xml:space="preserve">   Textbook sales and rentals </v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>227</v>
       </c>
@@ -9238,7 +9450,7 @@
         <v xml:space="preserve">   District activity receipts </v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>229</v>
       </c>
@@ -9250,7 +9462,7 @@
         <v xml:space="preserve">   Other sales and service revenues </v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>228</v>
       </c>
@@ -9262,7 +9474,7 @@
         <v xml:space="preserve">   Student fees, nonspecified </v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>232</v>
       </c>
@@ -9274,7 +9486,7 @@
         <v xml:space="preserve">   Interest earnings </v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>235</v>
       </c>
@@ -9286,7 +9498,7 @@
         <v xml:space="preserve">   Miscellaneous other local revenues </v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>236</v>
       </c>
@@ -9298,7 +9510,7 @@
         <v>TOTAL ELEMENTARY-SECONDARY EXPENDITURE</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>238</v>
       </c>
@@ -9310,7 +9522,7 @@
         <v>TOTAL CURRENT SPENDING FOR INSTRUCTION</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>81</v>
       </c>
@@ -9322,7 +9534,7 @@
         <v xml:space="preserve">   Current operation expenditure - Instruction </v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -9334,7 +9546,7 @@
         <v>   State payments on behalf - Instruction benefits</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>239</v>
       </c>
@@ -9346,7 +9558,7 @@
         <v xml:space="preserve">   Own retirement system transfer - Instruction </v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>243</v>
       </c>
@@ -9358,7 +9570,7 @@
         <v>TOTAL CURRENT SPENDING FOR SUPPORT SERVICES</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>91</v>
       </c>
@@ -9370,7 +9582,7 @@
         <v xml:space="preserve">   Current operation expenditure - Pupil support </v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>93</v>
       </c>
@@ -9382,7 +9594,7 @@
         <v xml:space="preserve">   Current operation expenditure - Instructional staff support </v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>244</v>
       </c>
@@ -9394,7 +9606,7 @@
         <v xml:space="preserve">   Current operation expenditure - General administration </v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>245</v>
       </c>
@@ -9406,7 +9618,7 @@
         <v xml:space="preserve">   Current operation expenditure - School administration </v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>246</v>
       </c>
@@ -9418,7 +9630,7 @@
         <v xml:space="preserve">   Current operation expenditure - Operation and maintenance of plant </v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>247</v>
       </c>
@@ -9430,7 +9642,7 @@
         <v xml:space="preserve">   Current operation expenditure - Student transportation </v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>248</v>
       </c>
@@ -9442,7 +9654,7 @@
         <v xml:space="preserve">   Current operation expenditure - Business/central/other support services </v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>249</v>
       </c>
@@ -9454,7 +9666,7 @@
         <v xml:space="preserve">   Current operation expenditure - Nonspecified support services </v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -9466,7 +9678,7 @@
         <v xml:space="preserve">   State payments on behalf - Pupil support benefits </v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>251</v>
       </c>
@@ -9478,7 +9690,7 @@
         <v xml:space="preserve">   State payments on behalf - Instructional staff support benefits </v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -9490,7 +9702,7 @@
         <v xml:space="preserve">   State payments on behalf - General administration benefits </v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>253</v>
       </c>
@@ -9502,7 +9714,7 @@
         <v xml:space="preserve">   State payments on behalf - School administration benefits </v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>254</v>
       </c>
@@ -9514,7 +9726,7 @@
         <v xml:space="preserve">   State payments on behalf - Operation and maintenance of plant benefits </v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>255</v>
       </c>
@@ -9526,7 +9738,7 @@
         <v xml:space="preserve">   State payments on behalf - Student transportation benefits </v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>256</v>
       </c>
@@ -9538,7 +9750,7 @@
         <v xml:space="preserve">   State payments on behalf - Business/central/other support services benefits </v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>4</v>
       </c>
@@ -9550,7 +9762,7 @@
         <v>TOTAL CURRENT SPENDING FOR OTHER ELEMENTARY-SECONDARY PROGRAMS</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>112</v>
       </c>
@@ -9562,7 +9774,7 @@
         <v xml:space="preserve">   Current operation expenditure - Food services </v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>114</v>
       </c>
@@ -9574,7 +9786,7 @@
         <v xml:space="preserve">   Current operation expenditure - Enterprise operations </v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>259</v>
       </c>
@@ -9586,7 +9798,7 @@
         <v xml:space="preserve">   Current operation expenditure - Other elementary-secondary programs </v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>260</v>
       </c>
@@ -9598,7 +9810,7 @@
         <v xml:space="preserve">   State payments on behalf - Other benefits </v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>262</v>
       </c>
@@ -9610,7 +9822,7 @@
         <v>TOTAL CURRENT SPENDING FOR NONELEMENTARY-SECONDARY PROGRAMS</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -9622,7 +9834,7 @@
         <v xml:space="preserve">   Current operation expenditure - Community services </v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>123</v>
       </c>
@@ -9634,7 +9846,7 @@
         <v xml:space="preserve">   Current operation expenditure - Adult education </v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>263</v>
       </c>
@@ -9646,7 +9858,7 @@
         <v xml:space="preserve">   Current operation expenditure - Other nonelementary-secondary programs </v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>265</v>
       </c>
@@ -9658,7 +9870,7 @@
         <v>TOTAL CAPITAL OUTLAY EXPENDITURE</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>129</v>
       </c>
@@ -9670,7 +9882,7 @@
         <v xml:space="preserve">   Construction </v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>266</v>
       </c>
@@ -9682,7 +9894,7 @@
         <v xml:space="preserve">   Instructional equipment </v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>267</v>
       </c>
@@ -9694,7 +9906,7 @@
         <v xml:space="preserve">   Other equipment </v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>268</v>
       </c>
@@ -9706,7 +9918,7 @@
         <v xml:space="preserve">   Nonspecified equipment </v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -9718,7 +9930,7 @@
         <v xml:space="preserve">   Purchase of land and existing structures </v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>237</v>
       </c>
@@ -9730,7 +9942,7 @@
         <v>TOTAL CURRENT SPENDING FOR ELEMENTARY-SECONDARY PROGRAMS</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>270</v>
       </c>
@@ -9742,7 +9954,7 @@
         <v>   Payments to state governments</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>271</v>
       </c>
@@ -9754,7 +9966,7 @@
         <v xml:space="preserve">   Payments to local governments </v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -9766,7 +9978,7 @@
         <v xml:space="preserve">   Payments to other school systems </v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>273</v>
       </c>
@@ -9778,7 +9990,7 @@
         <v xml:space="preserve">   Interest on school system debt </v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>241</v>
       </c>
@@ -9790,7 +10002,7 @@
         <v xml:space="preserve">   Exhibit - Payments to private schools </v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>242</v>
       </c>
@@ -9802,7 +10014,7 @@
         <v xml:space="preserve">   Exhibit - Payments to charter schools </v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>274</v>
       </c>
@@ -9814,7 +10026,7 @@
         <v xml:space="preserve">   Total salaries and wages </v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>142</v>
       </c>
@@ -9826,7 +10038,7 @@
         <v xml:space="preserve">   Total salaries and wages - Instruction </v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>275</v>
       </c>
@@ -9838,7 +10050,7 @@
         <v xml:space="preserve">   Total salaries and wages - Pupil support </v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>276</v>
       </c>
@@ -9850,7 +10062,7 @@
         <v xml:space="preserve">   Total salaries and wages - Instructional staff support </v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>277</v>
       </c>
@@ -9862,7 +10074,7 @@
         <v xml:space="preserve">   Total salaries and wages - General administration </v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>278</v>
       </c>
@@ -9874,7 +10086,7 @@
         <v xml:space="preserve">   Total salaries and wages - School administration </v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>279</v>
       </c>
@@ -9886,7 +10098,7 @@
         <v xml:space="preserve">   Total salaries and wages - Operation and maintenance of plant </v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>280</v>
       </c>
@@ -9898,7 +10110,7 @@
         <v xml:space="preserve">   Total salaries and wages - Student transportation </v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>281</v>
       </c>
@@ -9910,7 +10122,7 @@
         <v xml:space="preserve">   Total salaries and wages - Business/central/other support services </v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
         <v>282</v>
       </c>
@@ -9922,7 +10134,7 @@
         <v xml:space="preserve">   Total salaries and wages - Food services </v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>283</v>
       </c>
@@ -9934,7 +10146,7 @@
         <v xml:space="preserve">   Total employee benefit payments </v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>153</v>
       </c>
@@ -9946,7 +10158,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Instruction </v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>284</v>
       </c>
@@ -9958,7 +10170,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Pupil support </v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>285</v>
       </c>
@@ -9970,7 +10182,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Instructional staff </v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>286</v>
       </c>
@@ -9982,7 +10194,7 @@
         <v xml:space="preserve">   Total employee benefit payments - General administration </v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>287</v>
       </c>
@@ -9994,7 +10206,7 @@
         <v xml:space="preserve">   Total employee benefit payments - School administration </v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>288</v>
       </c>
@@ -10006,7 +10218,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Operation and maintenance of plant </v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>289</v>
       </c>
@@ -10018,7 +10230,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Student transportation </v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>290</v>
       </c>
@@ -10030,7 +10242,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Business/central/other support services </v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>291</v>
       </c>
@@ -10042,7 +10254,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Food services </v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>292</v>
       </c>
@@ -10054,7 +10266,7 @@
         <v xml:space="preserve">   Total employee benefit payments - Enterprise operations </v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>293</v>
       </c>
@@ -10066,7 +10278,7 @@
         <v xml:space="preserve">   Long-term debt outstanding at beginning of the fiscal year </v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>165</v>
       </c>
@@ -10078,7 +10290,7 @@
         <v xml:space="preserve">   Long-term debt issued during the fiscal year </v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>294</v>
       </c>
@@ -10090,7 +10302,7 @@
         <v xml:space="preserve">   Long-term debt retired during the fiscal year </v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>5</v>
       </c>
@@ -10102,7 +10314,7 @@
         <v xml:space="preserve">   Long-term debt outstanding at end of fiscal year </v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>295</v>
       </c>
@@ -10114,7 +10326,7 @@
         <v xml:space="preserve">   Short-term debt outstanding at beginning of the fiscal year </v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>296</v>
       </c>
@@ -10126,7 +10338,7 @@
         <v xml:space="preserve">   Short-term debt outstanding at end of the fiscal year </v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>297</v>
       </c>
@@ -10138,7 +10350,7 @@
         <v xml:space="preserve">   Cash and deposits, held at end of fiscal year - Debt service funds </v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>172</v>
       </c>
@@ -10150,7 +10362,7 @@
         <v xml:space="preserve">   Cash and deposits, held at end of fiscal year - Bond funds </v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>298</v>
       </c>
@@ -10162,7 +10374,7 @@
         <v xml:space="preserve">   Cash and deposits, held at end of fiscal year - Other funds </v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>302</v>
       </c>
@@ -10174,7 +10386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>303</v>
       </c>
@@ -10186,7 +10398,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>240</v>
       </c>
@@ -10198,7 +10410,7 @@
         <v xml:space="preserve">   State payments on behalf - Instruction nonbenefits </v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>257</v>
       </c>
@@ -10210,7 +10422,7 @@
         <v xml:space="preserve">   Own retirement system transfer - Support services </v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -10222,7 +10434,7 @@
         <v xml:space="preserve">   State payments on behalf - Support services, nonbenefits </v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>261</v>
       </c>
@@ -10234,7 +10446,7 @@
         <v xml:space="preserve">   State payments on behalf - Noninstructional and nonbenefits </v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>264</v>
       </c>
@@ -10246,7 +10458,7 @@
         <v xml:space="preserve">   State payments on behalf - Nonelementary-secondary programs </v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>269</v>
       </c>
@@ -10258,7 +10470,7 @@
         <v>   State payments on behalf - Capital outlay</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>304</v>
       </c>
@@ -10282,7 +10494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DE68BF-3F96-4938-AD6E-D5A1D0E1465F}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -10290,9 +10502,9 @@
       <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -10300,7 +10512,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -10308,7 +10520,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -10316,7 +10528,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -10324,7 +10536,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>348</v>
       </c>
@@ -10332,7 +10544,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>349</v>
       </c>
@@ -10340,7 +10552,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>350</v>
       </c>
@@ -10348,7 +10560,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>351</v>
       </c>
@@ -10356,7 +10568,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>352</v>
       </c>
@@ -10364,7 +10576,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>353</v>
       </c>
@@ -10372,7 +10584,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>354</v>
       </c>
@@ -10380,7 +10592,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>355</v>
       </c>
@@ -10388,7 +10600,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>356</v>
       </c>
@@ -10396,7 +10608,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>357</v>
       </c>
@@ -10404,7 +10616,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>358</v>
       </c>
@@ -10412,7 +10624,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>359</v>
       </c>
@@ -10420,7 +10632,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>360</v>
       </c>
@@ -10428,7 +10640,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>361</v>
       </c>
@@ -10436,7 +10648,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -10444,7 +10656,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>363</v>
       </c>
@@ -10452,7 +10664,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -10460,7 +10672,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>365</v>
       </c>
@@ -10468,7 +10680,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -10476,7 +10688,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>367</v>
       </c>
@@ -10484,7 +10696,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>368</v>
       </c>
@@ -10492,7 +10704,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>369</v>
       </c>
@@ -10500,7 +10712,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>370</v>
       </c>
@@ -10508,7 +10720,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>371</v>
       </c>
@@ -10516,7 +10728,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>372</v>
       </c>
@@ -10524,7 +10736,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>373</v>
       </c>
@@ -10532,7 +10744,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>374</v>
       </c>
@@ -10540,7 +10752,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
     </row>
   </sheetData>

--- a/Interpert_Data.xlsx
+++ b/Interpert_Data.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/ssoni7_emory_edu/Documents/Second_Year/Classes/ML/cs534-final-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{F82FD72D-358B-4246-BE1E-2B65DA431CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BCD4906-7CD7-4DFE-B226-3EE264DED08D}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="8_{F82FD72D-358B-4246-BE1E-2B65DA431CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B9815AF9-60CE-43B2-AABE-307C18927D50}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{B371AADF-BBAA-4F46-A685-F4050E2E70CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{B371AADF-BBAA-4F46-A685-F4050E2E70CD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_Labels" sheetId="2" r:id="rId1"/>
-    <sheet name="Lasso_Results" sheetId="1" r:id="rId2"/>
-    <sheet name="Lasso_Results_2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Spend above 1%" sheetId="4" r:id="rId6"/>
-    <sheet name="SVM_Results" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Lasso_Results_Human_Selected" sheetId="10" r:id="rId1"/>
+    <sheet name="Human_Selected" sheetId="9" r:id="rId2"/>
+    <sheet name="Data_Labels" sheetId="2" r:id="rId3"/>
+    <sheet name="Lasso_Results" sheetId="1" r:id="rId4"/>
+    <sheet name="Lasso_Results_2" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Spend above 1%" sheetId="4" r:id="rId8"/>
+    <sheet name="SVM_Results" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Spend above 1%'!$A$1:$C$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Spend above 1%'!$A$1:$C$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="313">
   <si>
     <t>V33</t>
   </si>
@@ -1106,6 +1108,12 @@
   </si>
   <si>
     <t>Spend Above 1%</t>
+  </si>
+  <si>
+    <t>Human Selected Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above 1% of Total Rev </t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1273,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1290,6 +1308,402 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lasso_Results_Human_Selected!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Lasso_Results_Human_Selected!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>E17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Z34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>E13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>E09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>TOTALREV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Z33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>T06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Z32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TSTREV</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>V15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>V11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>V23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>V13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>C17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lasso_Results_Human_Selected!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>44.131658000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.579594999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.023201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.025109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.506505000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.118186999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.675445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.472836</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.752739</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.411918</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69442700000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.72131299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.6946810000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.3700299999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.815874</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-27.803383</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-29.295995000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-48.085459999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-51.004655999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-107.873923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FBD-4035-93F7-F65DD71252EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="593509848"/>
+        <c:axId val="593506896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="593509848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593506896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593506896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593509848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1813,7 +2227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2275,7 +2689,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2707,7 +3121,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3316,6 +3730,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5367,7 +5821,553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>41861</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>162486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C6FF3B-69AD-410E-ABED-C83E8AEFFCAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5408,7 +6408,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5449,7 +6449,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5490,15 +6490,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90485</xdr:rowOff>
+      <xdr:colOff>1897157</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5780,7 +6780,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{658D02A2-2072-4E45-AE58-67FF9FCD896E}" name="PivotTable5" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{658D02A2-2072-4E45-AE58-67FF9FCD896E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A34:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0" sortType="descending">
@@ -5985,6 +6985,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8EA2C7F-3786-4D3A-8559-848BFB8FF519}" name="Table22" displayName="Table22" ref="A1:C142" totalsRowShown="0">
+  <autoFilter ref="A1:C142" xr:uid="{BB5BA938-1D33-4D3B-B50A-76AE2AFC02B4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C142">
+    <sortCondition ref="C1:C142"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{60A6A8D1-A6EB-4B57-B41A-74D42926CB32}" name="DataItem"/>
+    <tableColumn id="2" xr3:uid="{FE45D400-E694-4F98-9333-23BE635DC4E0}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{82DF2F90-4224-4028-AD38-4B63A7FEA4E7}" name="Human Selected Variables"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F018CC9-894D-49B0-AF50-682825762450}" name="Table2" displayName="Table2" ref="A1:C142" totalsRowShown="0">
   <autoFilter ref="A1:C142" xr:uid="{BB5BA938-1D33-4D3B-B50A-76AE2AFC02B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C142">
@@ -6295,11 +7310,3948 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31AE147-97CE-45EF-9410-09A8CEF1C4A9}">
+  <dimension ref="A1:V55"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" activeCellId="1" sqref="A21:F21 E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="70.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44.131658000000002</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="14" t="str">
+        <f>VLOOKUP(A2,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Pupil support </v>
+      </c>
+      <c r="F2" s="15" t="b">
+        <f>VLOOKUP(A2,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="24">
+        <v>32.579594999999998</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="14" t="str">
+        <f>VLOOKUP(A3,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - School administration </v>
+      </c>
+      <c r="F3" s="15" t="b">
+        <f>VLOOKUP(A3,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="24">
+        <v>32.023201</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="14" t="str">
+        <f>VLOOKUP(A4,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Instructional staff support </v>
+      </c>
+      <c r="F4" s="15" t="b">
+        <f>VLOOKUP(A4,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="24">
+        <v>31.025109</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="14" t="str">
+        <f>VLOOKUP(A5,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Federal revenue through the state - Vocational and technical education </v>
+      </c>
+      <c r="F5" s="15" t="b">
+        <f>VLOOKUP(A5,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="24">
+        <v>24.506505000000001</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="14" t="str">
+        <f>VLOOKUP(A6,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Food services </v>
+      </c>
+      <c r="F6" s="15" t="b">
+        <f>VLOOKUP(A6,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="24">
+        <v>21.118186999999999</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="14" t="str">
+        <f>VLOOKUP(A7,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - Operation and maintenance of plant </v>
+      </c>
+      <c r="F7" s="15" t="b">
+        <f>VLOOKUP(A7,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="24">
+        <v>17.675445</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="14" t="str">
+        <f>VLOOKUP(A8,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total employee benefit payments </v>
+      </c>
+      <c r="F8" s="15" t="b">
+        <f>VLOOKUP(A8,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="24">
+        <v>4.472836</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="14" t="str">
+        <f>VLOOKUP(A9,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Instruction </v>
+      </c>
+      <c r="F9" s="15" t="b">
+        <f>VLOOKUP(A9,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="24">
+        <v>1.752739</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="14" t="str">
+        <f>VLOOKUP(A10,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">General sales or gross receipts taxes </v>
+      </c>
+      <c r="F10" s="15" t="b">
+        <f>VLOOKUP(A10,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="24">
+        <v>1.411918</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="14" t="str">
+        <f>VLOOKUP(A11,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - School administration </v>
+      </c>
+      <c r="F11" s="15" t="b">
+        <f>VLOOKUP(A11,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0.69442700000000002</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="14" t="str">
+        <f>VLOOKUP(A12,Data_Labels!A:B,2,FALSE)</f>
+        <v>TOTAL ELEMENTARY-SECONDARY REVENUE (sum of TFEDREV + TSTREV + TLOCREV)</v>
+      </c>
+      <c r="F12" s="15" t="b">
+        <f>VLOOKUP(A12,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="24">
+        <v>-0.72131299999999998</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="14" t="str">
+        <f>VLOOKUP(A13,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - Instruction </v>
+      </c>
+      <c r="F13" s="15" t="b">
+        <f>VLOOKUP(A13,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="24">
+        <v>-2.6946810000000001</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="14" t="str">
+        <f>VLOOKUP(A14,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Property taxes </v>
+      </c>
+      <c r="F14" s="15" t="b">
+        <f>VLOOKUP(A14,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="24">
+        <v>-4.3700299999999999</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="14" t="str">
+        <f>VLOOKUP(A15,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages </v>
+      </c>
+      <c r="F15" s="15" t="b">
+        <f>VLOOKUP(A15,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="24">
+        <v>-4.815874</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="14" t="str">
+        <f>VLOOKUP(A16,Data_Labels!A:B,2,FALSE)</f>
+        <v>Total Revenue from State Sources (sum of C01 + C04 + C05 + C06 + C07 + C08 + C09 + C10 + C11 + C12 + C13 + C24 + C35 + C38  + C39)</v>
+      </c>
+      <c r="F16" s="15" t="b">
+        <f>VLOOKUP(A16,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="24">
+        <v>-27.803383</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="14" t="str">
+        <f>VLOOKUP(A17,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - General administration </v>
+      </c>
+      <c r="F17" s="15" t="b">
+        <f>VLOOKUP(A17,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="24">
+        <v>-29.295995000000001</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="14" t="str">
+        <f>VLOOKUP(A18,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - Pupil support </v>
+      </c>
+      <c r="F18" s="15" t="b">
+        <f>VLOOKUP(A18,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="24">
+        <v>-48.085459999999998</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="14" t="str">
+        <f>VLOOKUP(A19,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - Student transportation </v>
+      </c>
+      <c r="F19" s="15" t="b">
+        <f>VLOOKUP(A19,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="24">
+        <v>-51.004655999999997</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="14" t="str">
+        <f>VLOOKUP(A20,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - Instructional staff support </v>
+      </c>
+      <c r="F20" s="15" t="b">
+        <f>VLOOKUP(A20,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="24">
+        <v>-107.873923</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="14" t="str">
+        <f>VLOOKUP(A21,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Federal revenue through the state - Safe and drug-free schools </v>
+      </c>
+      <c r="F21" s="15" t="b">
+        <f>VLOOKUP(A21,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+    <sortCondition descending="1" ref="B2:B21"/>
+  </sortState>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F65440E-D843-455D-8D81-0B30D73A175C}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2">
+        <v>188.22480100000001</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total employee benefit payments - Instructional staff </v>
+      </c>
+      <c r="D2" t="b">
+        <f>VLOOKUP(A2,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>114.59926900000001</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A3,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Enterprise operations </v>
+      </c>
+      <c r="D3" t="b">
+        <f>VLOOKUP(A3,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4">
+        <v>34.697339999999997</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(A4,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - Food services </v>
+      </c>
+      <c r="D4" t="b">
+        <f>VLOOKUP(A4,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5">
+        <v>25.194033999999998</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(A5,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total employee benefit payments - Business/central/other support services </v>
+      </c>
+      <c r="D5" t="b">
+        <f>VLOOKUP(A5,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <v>22.824663000000001</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(A6,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Operation and maintenance of plant </v>
+      </c>
+      <c r="D6" t="b">
+        <f>VLOOKUP(A6,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>21.521753</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(A7,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Business/central/other support services </v>
+      </c>
+      <c r="D7" t="b">
+        <f>VLOOKUP(A7,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>18.146946</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(A8,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Adult education </v>
+      </c>
+      <c r="D8" t="b">
+        <f>VLOOKUP(A8,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>14.062400999999999</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(A9,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Pupil support </v>
+      </c>
+      <c r="D9" t="b">
+        <f>VLOOKUP(A9,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10">
+        <v>12.010526</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(A10,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - School administration </v>
+      </c>
+      <c r="D10" t="b">
+        <f>VLOOKUP(A10,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>11.497019999999999</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(A11,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Interest earnings </v>
+      </c>
+      <c r="D11" t="b">
+        <f>VLOOKUP(A11,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>10.127395999999999</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(A12,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total employee benefit payments - Instruction </v>
+      </c>
+      <c r="D12" t="b">
+        <f>VLOOKUP(A12,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>7.3976959999999998</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(A13,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - School administration </v>
+      </c>
+      <c r="D13" t="b">
+        <f>VLOOKUP(A13,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14">
+        <v>2.2193200000000002</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(A14,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - General administration </v>
+      </c>
+      <c r="D14" t="b">
+        <f>VLOOKUP(A14,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>1.7303459999999999</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(A15,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Food services </v>
+      </c>
+      <c r="D15" t="b">
+        <f>VLOOKUP(A15,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>1.248856</v>
+      </c>
+      <c r="C16" t="str">
+        <f>VLOOKUP(A16,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Instruction </v>
+      </c>
+      <c r="D16" t="b">
+        <f>VLOOKUP(A16,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0.14168900000000001</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(A17,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Construction </v>
+      </c>
+      <c r="D17" t="b">
+        <f>VLOOKUP(A17,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>-3.76295</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP(A18,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - Instruction </v>
+      </c>
+      <c r="D18" t="b">
+        <f>VLOOKUP(A18,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>-5.3084610000000003</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(A19,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Instructional staff support </v>
+      </c>
+      <c r="D19" t="b">
+        <f>VLOOKUP(A19,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20">
+        <v>-7.0344879999999996</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(A20,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - Operation and maintenance of plant </v>
+      </c>
+      <c r="D20" t="b">
+        <f>VLOOKUP(A20,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-12.887217</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(A21,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Purchase of land and existing structures </v>
+      </c>
+      <c r="D21" t="b">
+        <f>VLOOKUP(A21,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22">
+        <v>-15.622394</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP(A22,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Nonspecified equipment </v>
+      </c>
+      <c r="D22" t="b">
+        <f>VLOOKUP(A22,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>-16.698730999999999</v>
+      </c>
+      <c r="C23" t="str">
+        <f>VLOOKUP(A23,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Current operation expenditure - Community services </v>
+      </c>
+      <c r="D23" t="b">
+        <f>VLOOKUP(A23,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24">
+        <v>-19.084472000000002</v>
+      </c>
+      <c r="C24" t="str">
+        <f>VLOOKUP(A24,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Instructional equipment </v>
+      </c>
+      <c r="D24" t="b">
+        <f>VLOOKUP(A24,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25">
+        <v>-23.574946000000001</v>
+      </c>
+      <c r="C25" t="str">
+        <f>VLOOKUP(A25,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total employee benefit payments - Pupil support </v>
+      </c>
+      <c r="D25" t="b">
+        <f>VLOOKUP(A25,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26">
+        <v>-32.172640999999999</v>
+      </c>
+      <c r="C26" t="str">
+        <f>VLOOKUP(A26,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - General administration </v>
+      </c>
+      <c r="D26" t="b">
+        <f>VLOOKUP(A26,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27">
+        <v>-43.077756000000001</v>
+      </c>
+      <c r="C27" t="str">
+        <f>VLOOKUP(A27,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - Instructional staff support </v>
+      </c>
+      <c r="D27" t="b">
+        <f>VLOOKUP(A27,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28">
+        <v>-53.652754000000002</v>
+      </c>
+      <c r="C28" t="str">
+        <f>VLOOKUP(A28,Data_Labels!A:B,2,FALSE)</f>
+        <v xml:space="preserve">Total salaries and wages - Student transportation </v>
+      </c>
+      <c r="D28" t="b">
+        <f>VLOOKUP(A28,'Spend above 1%'!A:C,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="B34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35" s="36">
+        <v>26.642596999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" s="36">
+        <v>34.697339999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="36">
+        <v>22.824663000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="36">
+        <v>21.521753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" s="36">
+        <v>14.062400999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" s="36">
+        <v>12.010526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="36">
+        <v>11.497019999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="36">
+        <v>10.127395999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="36">
+        <v>7.3976959999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="36">
+        <v>2.2193200000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" s="36">
+        <v>1.7303459999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="36">
+        <v>1.248856</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" s="36">
+        <v>0.14168900000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48" s="36">
+        <v>-3.76295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="36">
+        <v>-5.3084610000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" s="36">
+        <v>-7.0344879999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B51" s="36">
+        <v>-43.077756000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="36">
+        <v>-53.652754000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="36">
+        <v>26.642596999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+    <sortCondition descending="1" ref="B1:B28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AF9012-9E2B-4646-9694-4F3D487C54C9}">
+  <dimension ref="A1:G142"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>_19H</v>
+      </c>
+      <c r="F29" t="str">
+        <f>"'"&amp;E29&amp;"',"</f>
+        <v>'_19H',</v>
+      </c>
+      <c r="G29" t="str">
+        <f>F29</f>
+        <v>'_19H',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>285</v>
+      </c>
+      <c r="E30" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>_21F</v>
+      </c>
+      <c r="F30" t="str">
+        <f>"'"&amp;E30&amp;"',"</f>
+        <v>'_21F',</v>
+      </c>
+      <c r="G30" t="str">
+        <f>G29&amp;F30</f>
+        <v>'_19H','_21F',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E31" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>_31F</v>
+      </c>
+      <c r="F31" t="str">
+        <f>"'"&amp;E31&amp;"',"</f>
+        <v>'_31F',</v>
+      </c>
+      <c r="G31" t="str">
+        <f>G30&amp;F31</f>
+        <v>'_19H','_21F','_31F',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>287</v>
+      </c>
+      <c r="E32" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>_41F</v>
+      </c>
+      <c r="F32" t="str">
+        <f>"'"&amp;E32&amp;"',"</f>
+        <v>'_41F',</v>
+      </c>
+      <c r="G32" t="str">
+        <f>G31&amp;F32</f>
+        <v>'_19H','_21F','_31F','_41F',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>_61V</v>
+      </c>
+      <c r="F33" t="str">
+        <f>"'"&amp;E33&amp;"',"</f>
+        <v>'_61V',</v>
+      </c>
+      <c r="G33" t="str">
+        <f>G32&amp;F33</f>
+        <v>'_19H','_21F','_31F','_41F','_61V',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" t="s">
+        <v>289</v>
+      </c>
+      <c r="E34" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>_66V</v>
+      </c>
+      <c r="F34" t="str">
+        <f>"'"&amp;E34&amp;"',"</f>
+        <v>'_66V',</v>
+      </c>
+      <c r="G34" t="str">
+        <f>G33&amp;F34</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>A07</v>
+      </c>
+      <c r="F35" t="str">
+        <f>"'"&amp;E35&amp;"',"</f>
+        <v>'A07',</v>
+      </c>
+      <c r="G35" t="str">
+        <f>G34&amp;F35</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E36" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>A08</v>
+      </c>
+      <c r="F36" t="str">
+        <f>"'"&amp;E36&amp;"',"</f>
+        <v>'A08',</v>
+      </c>
+      <c r="G36" t="str">
+        <f>G35&amp;F36</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>A09</v>
+      </c>
+      <c r="F37" t="str">
+        <f>"'"&amp;E37&amp;"',"</f>
+        <v>'A09',</v>
+      </c>
+      <c r="G37" t="str">
+        <f>G36&amp;F37</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>A11</v>
+      </c>
+      <c r="F38" t="str">
+        <f>"'"&amp;E38&amp;"',"</f>
+        <v>'A11',</v>
+      </c>
+      <c r="G38" t="str">
+        <f>G37&amp;F38</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>A13</v>
+      </c>
+      <c r="F39" t="str">
+        <f>"'"&amp;E39&amp;"',"</f>
+        <v>'A13',</v>
+      </c>
+      <c r="G39" t="str">
+        <f>G38&amp;F39</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>A15</v>
+      </c>
+      <c r="F40" t="str">
+        <f>"'"&amp;E40&amp;"',"</f>
+        <v>'A15',</v>
+      </c>
+      <c r="G40" t="str">
+        <f>G39&amp;F40</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>A20</v>
+      </c>
+      <c r="F41" t="str">
+        <f>"'"&amp;E41&amp;"',"</f>
+        <v>'A20',</v>
+      </c>
+      <c r="G41" t="str">
+        <f>G40&amp;F41</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>A40</v>
+      </c>
+      <c r="F42" t="str">
+        <f>"'"&amp;E42&amp;"',"</f>
+        <v>'A40',</v>
+      </c>
+      <c r="G42" t="str">
+        <f>G41&amp;F42</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>B10</v>
+      </c>
+      <c r="F43" t="str">
+        <f>"'"&amp;E43&amp;"',"</f>
+        <v>'B10',</v>
+      </c>
+      <c r="G43" t="str">
+        <f>G42&amp;F43</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>B11</v>
+      </c>
+      <c r="F44" t="str">
+        <f>"'"&amp;E44&amp;"',"</f>
+        <v>'B11',</v>
+      </c>
+      <c r="G44" t="str">
+        <f>G43&amp;F44</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>B12</v>
+      </c>
+      <c r="F45" t="str">
+        <f>"'"&amp;E45&amp;"',"</f>
+        <v>'B12',</v>
+      </c>
+      <c r="G45" t="str">
+        <f>G44&amp;F45</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>B13</v>
+      </c>
+      <c r="F46" t="str">
+        <f>"'"&amp;E46&amp;"',"</f>
+        <v>'B13',</v>
+      </c>
+      <c r="G46" t="str">
+        <f>G45&amp;F46</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C01</v>
+      </c>
+      <c r="F47" t="str">
+        <f>"'"&amp;E47&amp;"',"</f>
+        <v>'C01',</v>
+      </c>
+      <c r="G47" t="str">
+        <f>G46&amp;F47</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C04</v>
+      </c>
+      <c r="F48" t="str">
+        <f>"'"&amp;E48&amp;"',"</f>
+        <v>'C04',</v>
+      </c>
+      <c r="G48" t="str">
+        <f>G47&amp;F48</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C05</v>
+      </c>
+      <c r="F49" t="str">
+        <f>"'"&amp;E49&amp;"',"</f>
+        <v>'C05',</v>
+      </c>
+      <c r="G49" t="str">
+        <f>G48&amp;F49</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C07</v>
+      </c>
+      <c r="F50" t="str">
+        <f>"'"&amp;E50&amp;"',"</f>
+        <v>'C07',</v>
+      </c>
+      <c r="G50" t="str">
+        <f>G49&amp;F50</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C08</v>
+      </c>
+      <c r="F51" t="str">
+        <f>"'"&amp;E51&amp;"',"</f>
+        <v>'C08',</v>
+      </c>
+      <c r="G51" t="str">
+        <f>G50&amp;F51</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C10</v>
+      </c>
+      <c r="F52" t="str">
+        <f>"'"&amp;E52&amp;"',"</f>
+        <v>'C10',</v>
+      </c>
+      <c r="G52" t="str">
+        <f>G51&amp;F52</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C11</v>
+      </c>
+      <c r="F53" t="str">
+        <f>"'"&amp;E53&amp;"',"</f>
+        <v>'C11',</v>
+      </c>
+      <c r="G53" t="str">
+        <f>G52&amp;F53</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C12</v>
+      </c>
+      <c r="F54" t="str">
+        <f>"'"&amp;E54&amp;"',"</f>
+        <v>'C12',</v>
+      </c>
+      <c r="G54" t="str">
+        <f>G53&amp;F54</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C13</v>
+      </c>
+      <c r="F55" t="str">
+        <f>"'"&amp;E55&amp;"',"</f>
+        <v>'C13',</v>
+      </c>
+      <c r="G55" t="str">
+        <f>G54&amp;F55</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C14</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" ref="F56:F119" si="0">"'"&amp;E56&amp;"',"</f>
+        <v>'C14',</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" ref="G56:G119" si="1">G55&amp;F56</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C15</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>'C15',</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C20</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>'C20',</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C24</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>'C24',</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C25</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>'C25',</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C35</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>'C35',</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C36</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>'C36',</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C38</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>'C38',</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>C39</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>'C39',</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>CBSA*</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>'CBSA*',</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>CONUM*</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>'CONUM*',</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>CSA*</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="0"/>
+        <v>'CSA*',</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>D11</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="0"/>
+        <v>'D11',</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>216</v>
+      </c>
+      <c r="E69" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>D23</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="0"/>
+        <v>'D23',</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>F12</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="0"/>
+        <v>'F12',</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>G15</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="0"/>
+        <v>'G15',</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>I86</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="0"/>
+        <v>'I86',</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>IDCENSUS*</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="0"/>
+        <v>'IDCENSUS*',</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J07</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="0"/>
+        <v>'J07',</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J08</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="0"/>
+        <v>'J08',</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J09</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="0"/>
+        <v>'J09',</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" t="s">
+        <v>252</v>
+      </c>
+      <c r="E77" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J10</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="0"/>
+        <v>'J10',</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" t="s">
+        <v>247</v>
+      </c>
+      <c r="E78" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J11</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="0"/>
+        <v>'J11',</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J12</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="0"/>
+        <v>'J12',</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J13</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="0"/>
+        <v>'J13',</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J14</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="0"/>
+        <v>'J14',</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
+        <v>240</v>
+      </c>
+      <c r="E82" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J17</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="0"/>
+        <v>'J17',</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" t="s">
+        <v>244</v>
+      </c>
+      <c r="E83" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J40</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="0"/>
+        <v>'J40',</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" t="s">
+        <v>245</v>
+      </c>
+      <c r="E84" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J45</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="0"/>
+        <v>'J45',</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" t="s">
+        <v>246</v>
+      </c>
+      <c r="E85" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J90</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="0"/>
+        <v>'J90',</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
+        <v>248</v>
+      </c>
+      <c r="E86" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J96</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="0"/>
+        <v>'J96',</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" t="s">
+        <v>253</v>
+      </c>
+      <c r="E87" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J97</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="0"/>
+        <v>'J97',</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97',</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" t="s">
+        <v>257</v>
+      </c>
+      <c r="E88" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J98</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="0"/>
+        <v>'J98',</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" t="s">
+        <v>262</v>
+      </c>
+      <c r="E89" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>J99</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="0"/>
+        <v>'J99',</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>K09</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="0"/>
+        <v>'K09',</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>K10</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="0"/>
+        <v>'K10',</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>K11</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="0"/>
+        <v>'K11',</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>L12</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="0"/>
+        <v>'L12',</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12',</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>M12</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="0"/>
+        <v>'M12',</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12',</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>NAME*</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="0"/>
+        <v>'NAME*',</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*',</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>NCESID*</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="0"/>
+        <v>'NCESID*',</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*',</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>NONELSEC</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="0"/>
+        <v>'NONELSEC',</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC',</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>Q11</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="0"/>
+        <v>'Q11',</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11',</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>SCHLEV*</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="0"/>
+        <v>'SCHLEV*',</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*',</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>STATE*</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="0"/>
+        <v>'STATE*',</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*',</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>T02</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="0"/>
+        <v>'T02',</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02',</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>T99</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="0"/>
+        <v>'T99',</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99',</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" t="s">
+        <v>297</v>
+      </c>
+      <c r="E103" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>TCAPOUT</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="0"/>
+        <v>'TCAPOUT',</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT',</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" t="s">
+        <v>302</v>
+      </c>
+      <c r="E104" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>TCURELSC</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="0"/>
+        <v>'TCURELSC',</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC',</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" t="s">
+        <v>301</v>
+      </c>
+      <c r="E105" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>TCURINST</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="0"/>
+        <v>'TCURINST',</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST',</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>299</v>
+      </c>
+      <c r="E106" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>TCUROTH</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="0"/>
+        <v>'TCUROTH',</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH',</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" t="s">
+        <v>300</v>
+      </c>
+      <c r="E107" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>TCURSSVC</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="0"/>
+        <v>'TCURSSVC',</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC',</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" t="s">
+        <v>294</v>
+      </c>
+      <c r="E108" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>TFEDREV</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="0"/>
+        <v>'TFEDREV',</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV',</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>75</v>
+      </c>
+      <c r="B109" t="s">
+        <v>295</v>
+      </c>
+      <c r="E109" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>TLOCREV</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="0"/>
+        <v>'TLOCREV',</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV',</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>94</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>TOTALEXP</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="0"/>
+        <v>'TOTALEXP',</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP',</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="E111" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>U11</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="0"/>
+        <v>'U11',</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11',</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" t="s">
+        <v>224</v>
+      </c>
+      <c r="E112" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>U22</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="0"/>
+        <v>'U22',</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22',</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+      <c r="E113" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>U30</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="0"/>
+        <v>'U30',</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30',</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+      <c r="E114" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>U50</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="0"/>
+        <v>'U50',</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50',</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" t="s">
+        <v>227</v>
+      </c>
+      <c r="E115" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>U97</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="0"/>
+        <v>'U97',</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97',</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="E116" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V10</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="0"/>
+        <v>'V10',</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10',</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" t="s">
+        <v>275</v>
+      </c>
+      <c r="E117" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V12</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="0"/>
+        <v>'V12',</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12',</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" t="s">
+        <v>276</v>
+      </c>
+      <c r="E118" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V14</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="0"/>
+        <v>'V14',</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14',</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" t="s">
+        <v>277</v>
+      </c>
+      <c r="E119" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V16</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="0"/>
+        <v>'V16',</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16',</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" t="s">
+        <v>278</v>
+      </c>
+      <c r="E120" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V18</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" ref="F120:F142" si="2">"'"&amp;E120&amp;"',"</f>
+        <v>'V18',</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" ref="G120:G142" si="3">G119&amp;F120</f>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18',</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" t="s">
+        <v>279</v>
+      </c>
+      <c r="E121" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V22</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="2"/>
+        <v>'V22',</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22',</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>147</v>
+      </c>
+      <c r="B122" t="s">
+        <v>280</v>
+      </c>
+      <c r="E122" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V24</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="2"/>
+        <v>'V24',</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24',</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123" t="s">
+        <v>282</v>
+      </c>
+      <c r="E123" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V30</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="2"/>
+        <v>'V30',</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30',</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" t="s">
+        <v>283</v>
+      </c>
+      <c r="E124" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V32</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="2"/>
+        <v>'V32',</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32',</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V33</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="2"/>
+        <v>'V33',</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33',</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" t="s">
+        <v>272</v>
+      </c>
+      <c r="E126" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V37</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="2"/>
+        <v>'V37',</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37',</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" t="s">
+        <v>281</v>
+      </c>
+      <c r="E127" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V38</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="2"/>
+        <v>'V38',</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38',</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>104</v>
+      </c>
+      <c r="B128" t="s">
+        <v>237</v>
+      </c>
+      <c r="E128" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V40</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="2"/>
+        <v>'V40',</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40',</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B129" t="s">
+        <v>238</v>
+      </c>
+      <c r="E129" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V45</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="2"/>
+        <v>'V45',</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45',</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" t="s">
+        <v>250</v>
+      </c>
+      <c r="E130" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V60</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="2"/>
+        <v>'V60',</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60',</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>117</v>
+      </c>
+      <c r="B131" t="s">
+        <v>251</v>
+      </c>
+      <c r="E131" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V65</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" si="2"/>
+        <v>'V65',</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65',</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" t="s">
+        <v>254</v>
+      </c>
+      <c r="E132" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V70</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" si="2"/>
+        <v>'V70',</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70',</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" t="s">
+        <v>255</v>
+      </c>
+      <c r="E133" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V75</v>
+      </c>
+      <c r="F133" t="str">
+        <f t="shared" si="2"/>
+        <v>'V75',</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75',</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" t="s">
+        <v>256</v>
+      </c>
+      <c r="E134" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V80</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="2"/>
+        <v>'V80',</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80',</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135" t="s">
+        <v>239</v>
+      </c>
+      <c r="E135" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V85</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="2"/>
+        <v>'V85',</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85',</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>106</v>
+      </c>
+      <c r="B136" t="s">
+        <v>179</v>
+      </c>
+      <c r="E136" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V90</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="2"/>
+        <v>'V90',</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90',</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>99</v>
+      </c>
+      <c r="B137" t="s">
+        <v>232</v>
+      </c>
+      <c r="E137" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V91</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="2"/>
+        <v>'V91',</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90','V91',</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>100</v>
+      </c>
+      <c r="B138" t="s">
+        <v>233</v>
+      </c>
+      <c r="E138" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>V92</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="2"/>
+        <v>'V92',</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90','V91','V92',</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" t="s">
+        <v>290</v>
+      </c>
+      <c r="E139" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>W01</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="2"/>
+        <v>'W01',</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90','V91','V92','W01',</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" t="s">
+        <v>291</v>
+      </c>
+      <c r="E140" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>W31</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="2"/>
+        <v>'W31',</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90','V91','V92','W01','W31',</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141" t="s">
+        <v>292</v>
+      </c>
+      <c r="E141" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>W61</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="2"/>
+        <v>'W61',</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90','V91','V92','W01','W31','W61',</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" t="str">
+        <f>Table22[[#This Row],[DataItem]]</f>
+        <v>YRDATA*</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="2"/>
+        <v>'YRDATA*',</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="3"/>
+        <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90','V91','V92','W01','W31','W61','YRDATA*',</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4256B1D-6001-4407-B51E-0DC64C59F555}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView topLeftCell="A116" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8567,7 +13519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC09F4DD-4E15-4AC2-ABD5-09687815E848}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -8950,7 +13902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65454753-C424-4853-8BB7-6EEE95C64FF9}">
   <dimension ref="A1:V55"/>
   <sheetViews>
@@ -9746,7 +14698,7 @@
     <sortCondition descending="1" ref="B1:B32"/>
   </sortState>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9755,7 +14707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0809E0-5460-42E1-9CA4-40646712A51E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -9899,7 +14851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631150A6-625A-4DF8-864D-F56EACE4A23E}">
   <dimension ref="A1:D132"/>
   <sheetViews>
@@ -11897,7 +16849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8572D127-4B0A-4116-AA41-3B81C4601F38}">
   <dimension ref="A1:C132"/>
   <sheetViews>
@@ -13500,11 +18452,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DE68BF-3F96-4938-AD6E-D5A1D0E1465F}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -15656,634 +20608,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F65440E-D843-455D-8D81-0B30D73A175C}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2">
-        <v>188.22480100000001</v>
-      </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(A2,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Total employee benefit payments - Instructional staff </v>
-      </c>
-      <c r="D2" t="b">
-        <f>VLOOKUP(A2,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>114.59926900000001</v>
-      </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(A3,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Current operation expenditure - Enterprise operations </v>
-      </c>
-      <c r="D3" t="b">
-        <f>VLOOKUP(A3,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4">
-        <v>34.697339999999997</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(A4,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Total salaries and wages - Food services </v>
-      </c>
-      <c r="D4" t="b">
-        <f>VLOOKUP(A4,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5">
-        <v>25.194033999999998</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(A5,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Total employee benefit payments - Business/central/other support services </v>
-      </c>
-      <c r="D5" t="b">
-        <f>VLOOKUP(A5,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6">
-        <v>22.824663000000001</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(A6,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Current operation expenditure - Operation and maintenance of plant </v>
-      </c>
-      <c r="D6" t="b">
-        <f>VLOOKUP(A6,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7">
-        <v>21.521753</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(A7,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Current operation expenditure - Business/central/other support services </v>
-      </c>
-      <c r="D7" t="b">
-        <f>VLOOKUP(A7,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <v>18.146946</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(A8,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Current operation expenditure - Adult education </v>
-      </c>
-      <c r="D8" t="b">
-        <f>VLOOKUP(A8,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>14.062400999999999</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(A9,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Current operation expenditure - Pupil support </v>
-      </c>
-      <c r="D9" t="b">
-        <f>VLOOKUP(A9,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10">
-        <v>12.010526</v>
-      </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(A10,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Total salaries and wages - School administration </v>
-      </c>
-      <c r="D10" t="b">
-        <f>VLOOKUP(A10,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11">
-        <v>11.497019999999999</v>
-      </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(A11,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Interest earnings </v>
-      </c>
-      <c r="D11" t="b">
-        <f>VLOOKUP(A11,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>10.127395999999999</v>
-      </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(A12,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Total employee benefit payments - Instruction </v>
-      </c>
-      <c r="D12" t="b">
-        <f>VLOOKUP(A12,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13">
-        <v>7.3976959999999998</v>
-      </c>
-      <c r="C13" t="str">
-        <f>VLOOKUP(A13,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Current operation expenditure - School administration </v>
-      </c>
-      <c r="D13" t="b">
-        <f>VLOOKUP(A13,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14">
-        <v>2.2193200000000002</v>
-      </c>
-      <c r="C14" t="str">
-        <f>VLOOKUP(A14,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Current operation expenditure - General administration </v>
-      </c>
-      <c r="D14" t="b">
-        <f>VLOOKUP(A14,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>1.7303459999999999</v>
-      </c>
-      <c r="C15" t="str">
-        <f>VLOOKUP(A15,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Current operation expenditure - Food services </v>
-      </c>
-      <c r="D15" t="b">
-        <f>VLOOKUP(A15,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>1.248856</v>
-      </c>
-      <c r="C16" t="str">
-        <f>VLOOKUP(A16,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Current operation expenditure - Instruction </v>
-      </c>
-      <c r="D16" t="b">
-        <f>VLOOKUP(A16,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>0.14168900000000001</v>
-      </c>
-      <c r="C17" t="str">
-        <f>VLOOKUP(A17,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Construction </v>
-      </c>
-      <c r="D17" t="b">
-        <f>VLOOKUP(A17,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <v>-3.76295</v>
-      </c>
-      <c r="C18" t="str">
-        <f>VLOOKUP(A18,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Total salaries and wages - Instruction </v>
-      </c>
-      <c r="D18" t="b">
-        <f>VLOOKUP(A18,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>-5.3084610000000003</v>
-      </c>
-      <c r="C19" t="str">
-        <f>VLOOKUP(A19,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Current operation expenditure - Instructional staff support </v>
-      </c>
-      <c r="D19" t="b">
-        <f>VLOOKUP(A19,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20">
-        <v>-7.0344879999999996</v>
-      </c>
-      <c r="C20" t="str">
-        <f>VLOOKUP(A20,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Total salaries and wages - Operation and maintenance of plant </v>
-      </c>
-      <c r="D20" t="b">
-        <f>VLOOKUP(A20,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>-12.887217</v>
-      </c>
-      <c r="C21" t="str">
-        <f>VLOOKUP(A21,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Purchase of land and existing structures </v>
-      </c>
-      <c r="D21" t="b">
-        <f>VLOOKUP(A21,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22">
-        <v>-15.622394</v>
-      </c>
-      <c r="C22" t="str">
-        <f>VLOOKUP(A22,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Nonspecified equipment </v>
-      </c>
-      <c r="D22" t="b">
-        <f>VLOOKUP(A22,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>-16.698730999999999</v>
-      </c>
-      <c r="C23" t="str">
-        <f>VLOOKUP(A23,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Current operation expenditure - Community services </v>
-      </c>
-      <c r="D23" t="b">
-        <f>VLOOKUP(A23,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24">
-        <v>-19.084472000000002</v>
-      </c>
-      <c r="C24" t="str">
-        <f>VLOOKUP(A24,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Instructional equipment </v>
-      </c>
-      <c r="D24" t="b">
-        <f>VLOOKUP(A24,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25">
-        <v>-23.574946000000001</v>
-      </c>
-      <c r="C25" t="str">
-        <f>VLOOKUP(A25,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Total employee benefit payments - Pupil support </v>
-      </c>
-      <c r="D25" t="b">
-        <f>VLOOKUP(A25,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26">
-        <v>-32.172640999999999</v>
-      </c>
-      <c r="C26" t="str">
-        <f>VLOOKUP(A26,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Total salaries and wages - General administration </v>
-      </c>
-      <c r="D26" t="b">
-        <f>VLOOKUP(A26,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27">
-        <v>-43.077756000000001</v>
-      </c>
-      <c r="C27" t="str">
-        <f>VLOOKUP(A27,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Total salaries and wages - Instructional staff support </v>
-      </c>
-      <c r="D27" t="b">
-        <f>VLOOKUP(A27,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28">
-        <v>-53.652754000000002</v>
-      </c>
-      <c r="C28" t="str">
-        <f>VLOOKUP(A28,Data_Labels!A:B,2,FALSE)</f>
-        <v xml:space="preserve">Total salaries and wages - Student transportation </v>
-      </c>
-      <c r="D28" t="b">
-        <f>VLOOKUP(A28,'Spend above 1%'!A:C,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="B34" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="B35" s="36">
-        <v>26.642596999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="B36" s="36">
-        <v>34.697339999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="36">
-        <v>22.824663000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" s="36">
-        <v>21.521753</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39" s="36">
-        <v>14.062400999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="B40" s="36">
-        <v>12.010526</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="B41" s="36">
-        <v>11.497019999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="36">
-        <v>10.127395999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="36">
-        <v>7.3976959999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="B44" s="36">
-        <v>2.2193200000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45" s="36">
-        <v>1.7303459999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="B46" s="36">
-        <v>1.248856</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="B47" s="36">
-        <v>0.14168900000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="B48" s="36">
-        <v>-3.76295</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="B49" s="36">
-        <v>-5.3084610000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="B50" s="36">
-        <v>-7.0344879999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="B51" s="36">
-        <v>-43.077756000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="B52" s="36">
-        <v>-53.652754000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="B53" s="36">
-        <v>26.642596999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
-    <sortCondition descending="1" ref="B1:B28"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Interpert_Data.xlsx
+++ b/Interpert_Data.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/ssoni7_emory_edu/Documents/Second_Year/Classes/ML/cs534-final-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="8_{F82FD72D-358B-4246-BE1E-2B65DA431CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B9815AF9-60CE-43B2-AABE-307C18927D50}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="8_{F82FD72D-358B-4246-BE1E-2B65DA431CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4425CF15-5676-4435-B357-4CDCB0DB0DE0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{B371AADF-BBAA-4F46-A685-F4050E2E70CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{B371AADF-BBAA-4F46-A685-F4050E2E70CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Lasso_Results_Human_Selected" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="312">
   <si>
     <t>V33</t>
   </si>
@@ -1096,9 +1096,6 @@
   </si>
   <si>
     <t>Row Labels</t>
-  </si>
-  <si>
-    <t>TRUE</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -1217,7 +1214,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1262,9 +1259,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -2972,7 +2966,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3259,126 +3253,179 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$35:$A$53</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Total salaries and wages - Food services </c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Current operation expenditure - Operation and maintenance of plant </c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Current operation expenditure - Business/central/other support services </c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Current operation expenditure - Pupil support </c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Total salaries and wages - School administration </c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Interest earnings </c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Total employee benefit payments - Instruction </c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Current operation expenditure - School administration </c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Current operation expenditure - General administration </c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Current operation expenditure - Food services </c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Current operation expenditure - Instruction </c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Construction </c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Total salaries and wages - Instruction </c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Current operation expenditure - Instructional staff support </c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Total salaries and wages - Operation and maintenance of plant </c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Total salaries and wages - Instructional staff support </c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Total salaries and wages - Student transportation </c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>TRUE</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Sheet1!$A$35:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>V14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>V75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>E17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>V17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>U22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>V10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>E09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>E08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>E11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>E13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>F12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Z33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>E07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>V21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>G15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>K11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>V70</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>K09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>V12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>V15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>V13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>V23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$35:$B$53</c:f>
+              <c:f>Sheet1!$B$35:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
+                  <c:v>188.22480100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114.59926900000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>34.697339999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>25.194033999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>22.824663000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>21.521753</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>18.146946</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>14.062400999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>12.010526</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>11.497019999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>10.127395999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>7.3976959999999998</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>2.2193200000000002</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>1.7303459999999999</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>1.248856</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>0.14168900000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>-3.76295</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>-5.3084610000000003</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>-7.0344879999999996</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
+                  <c:v>-12.887217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-15.622394</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-16.698730999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-19.084472000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-23.574946000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-32.172640999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>-43.077756000000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>-53.652754000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -6328,16 +6375,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>41861</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>404544</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>162486</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
+      <xdr:colOff>132833</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:rowOff>156321</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6412,16 +6459,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53066</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2119991</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>372835</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>23132</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>153760</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6453,16 +6500,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4032</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>508856</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6489,16 +6536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1897157</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>42583</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>534039</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589229</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>138495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6781,9 +6828,9 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{658D02A2-2072-4E45-AE58-67FF9FCD896E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A34:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A34:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField showAll="0" sortType="descending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="28">
         <item x="17"/>
         <item x="12"/>
@@ -6825,7 +6872,7 @@
       </autoSortScope>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+    <pivotField showAll="0" sortType="descending">
       <items count="28">
         <item x="15"/>
         <item x="6"/>
@@ -6866,7 +6913,7 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+    <pivotField showAll="0" sortType="descending">
       <items count="3">
         <item h="1" x="0"/>
         <item x="1"/>
@@ -6883,64 +6930,90 @@
       </autoSortScope>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="2"/>
+  <rowFields count="1">
+    <field x="0"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="28">
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="20"/>
+    <i>
+      <x v="3"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
       <x v="9"/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i>
+      <x v="23"/>
     </i>
-    <i r="1">
-      <x v="10"/>
+    <i>
+      <x v="8"/>
     </i>
-    <i r="1">
-      <x v="25"/>
+    <i>
+      <x v="12"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
       <x v="13"/>
     </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
+    <i>
+      <x v="18"/>
     </i>
     <i t="grand">
       <x/>
@@ -7311,9 +7384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31AE147-97CE-45EF-9410-09A8CEF1C4A9}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" activeCellId="1" sqref="A21:F21 E16"/>
     </sheetView>
   </sheetViews>
@@ -7338,7 +7412,7 @@
         <v>158</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -7995,7 +8069,7 @@
     <sortCondition descending="1" ref="B2:B21"/>
   </sortState>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8006,15 +8080,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F65440E-D843-455D-8D81-0B30D73A175C}">
-  <dimension ref="A1:D53"/>
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -8030,7 +8105,7 @@
         <v>305</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8470,159 +8545,231 @@
         <v>306</v>
       </c>
       <c r="B34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="B35" s="36">
-        <v>26.642596999999995</v>
+        <v>143</v>
+      </c>
+      <c r="B35" s="35">
+        <v>188.22480100000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="B36" s="36">
+      <c r="A36" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="35">
+        <v>114.59926900000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="35">
         <v>34.697339999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="36">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="35">
+        <v>25.194033999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="35">
         <v>22.824663000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" s="36">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="35">
         <v>21.521753</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39" s="36">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="35">
+        <v>18.146946</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="35">
         <v>14.062400999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="B40" s="36">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="35">
         <v>12.010526</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="B41" s="36">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="35">
         <v>11.497019999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="36">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="35">
         <v>10.127395999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="36">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="35">
         <v>7.3976959999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="B44" s="36">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="35">
         <v>2.2193200000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45" s="36">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="35">
         <v>1.7303459999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="B46" s="36">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="35">
         <v>1.248856</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="B47" s="36">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="35">
         <v>0.14168900000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="B48" s="36">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="35">
         <v>-3.76295</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="B49" s="36">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="35">
         <v>-5.3084610000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="B50" s="36">
-        <v>-7.0344879999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="B51" s="36">
-        <v>-43.077756000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="B52" s="36">
-        <v>-53.652754000000002</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="B53" s="36">
-        <v>26.642596999999995</v>
+        <v>137</v>
+      </c>
+      <c r="B53" s="35">
+        <v>-7.0344879999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="35">
+        <v>-12.887217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="35">
+        <v>-15.622394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="35">
+        <v>-16.698730999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="35">
+        <v>-19.084472000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="35">
+        <v>-23.574946000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="35">
+        <v>-32.172640999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="35">
+        <v>-43.077756000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="35">
+        <v>-53.652754000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B62" s="35">
+        <v>252.767246</v>
       </c>
     </row>
   </sheetData>
@@ -8636,9 +8783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AF9012-9E2B-4646-9694-4F3D487C54C9}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
@@ -8657,7 +8805,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8969,7 +9117,7 @@
         <v>_19H</v>
       </c>
       <c r="F29" t="str">
-        <f>"'"&amp;E29&amp;"',"</f>
+        <f t="shared" ref="F29:F55" si="0">"'"&amp;E29&amp;"',"</f>
         <v>'_19H',</v>
       </c>
       <c r="G29" t="str">
@@ -8989,11 +9137,11 @@
         <v>_21F</v>
       </c>
       <c r="F30" t="str">
-        <f>"'"&amp;E30&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'_21F',</v>
       </c>
       <c r="G30" t="str">
-        <f>G29&amp;F30</f>
+        <f t="shared" ref="G30:G55" si="1">G29&amp;F30</f>
         <v>'_19H','_21F',</v>
       </c>
     </row>
@@ -9009,11 +9157,11 @@
         <v>_31F</v>
       </c>
       <c r="F31" t="str">
-        <f>"'"&amp;E31&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'_31F',</v>
       </c>
       <c r="G31" t="str">
-        <f>G30&amp;F31</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F',</v>
       </c>
     </row>
@@ -9029,11 +9177,11 @@
         <v>_41F</v>
       </c>
       <c r="F32" t="str">
-        <f>"'"&amp;E32&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'_41F',</v>
       </c>
       <c r="G32" t="str">
-        <f>G31&amp;F32</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F',</v>
       </c>
     </row>
@@ -9049,11 +9197,11 @@
         <v>_61V</v>
       </c>
       <c r="F33" t="str">
-        <f>"'"&amp;E33&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'_61V',</v>
       </c>
       <c r="G33" t="str">
-        <f>G32&amp;F33</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V',</v>
       </c>
     </row>
@@ -9069,11 +9217,11 @@
         <v>_66V</v>
       </c>
       <c r="F34" t="str">
-        <f>"'"&amp;E34&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'_66V',</v>
       </c>
       <c r="G34" t="str">
-        <f>G33&amp;F34</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V',</v>
       </c>
     </row>
@@ -9089,11 +9237,11 @@
         <v>A07</v>
       </c>
       <c r="F35" t="str">
-        <f>"'"&amp;E35&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'A07',</v>
       </c>
       <c r="G35" t="str">
-        <f>G34&amp;F35</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07',</v>
       </c>
     </row>
@@ -9109,11 +9257,11 @@
         <v>A08</v>
       </c>
       <c r="F36" t="str">
-        <f>"'"&amp;E36&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'A08',</v>
       </c>
       <c r="G36" t="str">
-        <f>G35&amp;F36</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08',</v>
       </c>
     </row>
@@ -9129,11 +9277,11 @@
         <v>A09</v>
       </c>
       <c r="F37" t="str">
-        <f>"'"&amp;E37&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'A09',</v>
       </c>
       <c r="G37" t="str">
-        <f>G36&amp;F37</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09',</v>
       </c>
     </row>
@@ -9149,11 +9297,11 @@
         <v>A11</v>
       </c>
       <c r="F38" t="str">
-        <f>"'"&amp;E38&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'A11',</v>
       </c>
       <c r="G38" t="str">
-        <f>G37&amp;F38</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11',</v>
       </c>
     </row>
@@ -9169,11 +9317,11 @@
         <v>A13</v>
       </c>
       <c r="F39" t="str">
-        <f>"'"&amp;E39&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'A13',</v>
       </c>
       <c r="G39" t="str">
-        <f>G38&amp;F39</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13',</v>
       </c>
     </row>
@@ -9189,11 +9337,11 @@
         <v>A15</v>
       </c>
       <c r="F40" t="str">
-        <f>"'"&amp;E40&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'A15',</v>
       </c>
       <c r="G40" t="str">
-        <f>G39&amp;F40</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15',</v>
       </c>
     </row>
@@ -9209,11 +9357,11 @@
         <v>A20</v>
       </c>
       <c r="F41" t="str">
-        <f>"'"&amp;E41&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'A20',</v>
       </c>
       <c r="G41" t="str">
-        <f>G40&amp;F41</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20',</v>
       </c>
     </row>
@@ -9229,11 +9377,11 @@
         <v>A40</v>
       </c>
       <c r="F42" t="str">
-        <f>"'"&amp;E42&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'A40',</v>
       </c>
       <c r="G42" t="str">
-        <f>G41&amp;F42</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40',</v>
       </c>
     </row>
@@ -9249,11 +9397,11 @@
         <v>B10</v>
       </c>
       <c r="F43" t="str">
-        <f>"'"&amp;E43&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'B10',</v>
       </c>
       <c r="G43" t="str">
-        <f>G42&amp;F43</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10',</v>
       </c>
     </row>
@@ -9269,11 +9417,11 @@
         <v>B11</v>
       </c>
       <c r="F44" t="str">
-        <f>"'"&amp;E44&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'B11',</v>
       </c>
       <c r="G44" t="str">
-        <f>G43&amp;F44</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11',</v>
       </c>
     </row>
@@ -9289,11 +9437,11 @@
         <v>B12</v>
       </c>
       <c r="F45" t="str">
-        <f>"'"&amp;E45&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'B12',</v>
       </c>
       <c r="G45" t="str">
-        <f>G44&amp;F45</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12',</v>
       </c>
     </row>
@@ -9309,11 +9457,11 @@
         <v>B13</v>
       </c>
       <c r="F46" t="str">
-        <f>"'"&amp;E46&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'B13',</v>
       </c>
       <c r="G46" t="str">
-        <f>G45&amp;F46</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13',</v>
       </c>
     </row>
@@ -9329,11 +9477,11 @@
         <v>C01</v>
       </c>
       <c r="F47" t="str">
-        <f>"'"&amp;E47&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'C01',</v>
       </c>
       <c r="G47" t="str">
-        <f>G46&amp;F47</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01',</v>
       </c>
     </row>
@@ -9349,11 +9497,11 @@
         <v>C04</v>
       </c>
       <c r="F48" t="str">
-        <f>"'"&amp;E48&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'C04',</v>
       </c>
       <c r="G48" t="str">
-        <f>G47&amp;F48</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04',</v>
       </c>
     </row>
@@ -9369,11 +9517,11 @@
         <v>C05</v>
       </c>
       <c r="F49" t="str">
-        <f>"'"&amp;E49&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'C05',</v>
       </c>
       <c r="G49" t="str">
-        <f>G48&amp;F49</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05',</v>
       </c>
     </row>
@@ -9389,11 +9537,11 @@
         <v>C07</v>
       </c>
       <c r="F50" t="str">
-        <f>"'"&amp;E50&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'C07',</v>
       </c>
       <c r="G50" t="str">
-        <f>G49&amp;F50</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07',</v>
       </c>
     </row>
@@ -9409,11 +9557,11 @@
         <v>C08</v>
       </c>
       <c r="F51" t="str">
-        <f>"'"&amp;E51&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'C08',</v>
       </c>
       <c r="G51" t="str">
-        <f>G50&amp;F51</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08',</v>
       </c>
     </row>
@@ -9429,11 +9577,11 @@
         <v>C10</v>
       </c>
       <c r="F52" t="str">
-        <f>"'"&amp;E52&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'C10',</v>
       </c>
       <c r="G52" t="str">
-        <f>G51&amp;F52</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10',</v>
       </c>
     </row>
@@ -9449,11 +9597,11 @@
         <v>C11</v>
       </c>
       <c r="F53" t="str">
-        <f>"'"&amp;E53&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'C11',</v>
       </c>
       <c r="G53" t="str">
-        <f>G52&amp;F53</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11',</v>
       </c>
     </row>
@@ -9469,11 +9617,11 @@
         <v>C12</v>
       </c>
       <c r="F54" t="str">
-        <f>"'"&amp;E54&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'C12',</v>
       </c>
       <c r="G54" t="str">
-        <f>G53&amp;F54</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12',</v>
       </c>
     </row>
@@ -9489,11 +9637,11 @@
         <v>C13</v>
       </c>
       <c r="F55" t="str">
-        <f>"'"&amp;E55&amp;"',"</f>
+        <f t="shared" si="0"/>
         <v>'C13',</v>
       </c>
       <c r="G55" t="str">
-        <f>G54&amp;F55</f>
+        <f t="shared" si="1"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13',</v>
       </c>
     </row>
@@ -9509,11 +9657,11 @@
         <v>C14</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" ref="F56:F119" si="0">"'"&amp;E56&amp;"',"</f>
+        <f t="shared" ref="F56:F119" si="2">"'"&amp;E56&amp;"',"</f>
         <v>'C14',</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" ref="G56:G119" si="1">G55&amp;F56</f>
+        <f t="shared" ref="G56:G119" si="3">G55&amp;F56</f>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14',</v>
       </c>
     </row>
@@ -9529,11 +9677,11 @@
         <v>C15</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'C15',</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15',</v>
       </c>
     </row>
@@ -9549,11 +9697,11 @@
         <v>C20</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'C20',</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20',</v>
       </c>
     </row>
@@ -9569,11 +9717,11 @@
         <v>C24</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'C24',</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24',</v>
       </c>
     </row>
@@ -9589,11 +9737,11 @@
         <v>C25</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'C25',</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25',</v>
       </c>
     </row>
@@ -9609,11 +9757,11 @@
         <v>C35</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'C35',</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35',</v>
       </c>
     </row>
@@ -9629,11 +9777,11 @@
         <v>C36</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'C36',</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36',</v>
       </c>
     </row>
@@ -9649,11 +9797,11 @@
         <v>C38</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'C38',</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38',</v>
       </c>
     </row>
@@ -9669,11 +9817,11 @@
         <v>C39</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'C39',</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39',</v>
       </c>
     </row>
@@ -9689,11 +9837,11 @@
         <v>CBSA*</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'CBSA*',</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*',</v>
       </c>
     </row>
@@ -9709,11 +9857,11 @@
         <v>CONUM*</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'CONUM*',</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*',</v>
       </c>
     </row>
@@ -9729,11 +9877,11 @@
         <v>CSA*</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'CSA*',</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*',</v>
       </c>
     </row>
@@ -9749,11 +9897,11 @@
         <v>D11</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'D11',</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11',</v>
       </c>
     </row>
@@ -9769,11 +9917,11 @@
         <v>D23</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'D23',</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23',</v>
       </c>
     </row>
@@ -9789,11 +9937,11 @@
         <v>F12</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'F12',</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12',</v>
       </c>
     </row>
@@ -9809,11 +9957,11 @@
         <v>G15</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'G15',</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15',</v>
       </c>
     </row>
@@ -9829,11 +9977,11 @@
         <v>I86</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'I86',</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86',</v>
       </c>
     </row>
@@ -9849,11 +9997,11 @@
         <v>IDCENSUS*</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'IDCENSUS*',</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*',</v>
       </c>
     </row>
@@ -9869,11 +10017,11 @@
         <v>J07</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J07',</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07',</v>
       </c>
     </row>
@@ -9889,11 +10037,11 @@
         <v>J08</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J08',</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08',</v>
       </c>
     </row>
@@ -9909,11 +10057,11 @@
         <v>J09</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J09',</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09',</v>
       </c>
     </row>
@@ -9929,11 +10077,11 @@
         <v>J10</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J10',</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10',</v>
       </c>
     </row>
@@ -9949,11 +10097,11 @@
         <v>J11</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J11',</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11',</v>
       </c>
     </row>
@@ -9969,11 +10117,11 @@
         <v>J12</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J12',</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12',</v>
       </c>
     </row>
@@ -9989,11 +10137,11 @@
         <v>J13</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J13',</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13',</v>
       </c>
     </row>
@@ -10009,11 +10157,11 @@
         <v>J14</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J14',</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14',</v>
       </c>
     </row>
@@ -10029,11 +10177,11 @@
         <v>J17</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J17',</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17',</v>
       </c>
     </row>
@@ -10049,11 +10197,11 @@
         <v>J40</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J40',</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40',</v>
       </c>
     </row>
@@ -10069,11 +10217,11 @@
         <v>J45</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J45',</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45',</v>
       </c>
     </row>
@@ -10089,11 +10237,11 @@
         <v>J90</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J90',</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90',</v>
       </c>
     </row>
@@ -10109,11 +10257,11 @@
         <v>J96</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J96',</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96',</v>
       </c>
     </row>
@@ -10129,11 +10277,11 @@
         <v>J97</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J97',</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97',</v>
       </c>
     </row>
@@ -10149,11 +10297,11 @@
         <v>J98</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J98',</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98',</v>
       </c>
     </row>
@@ -10169,11 +10317,11 @@
         <v>J99</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'J99',</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99',</v>
       </c>
     </row>
@@ -10189,11 +10337,11 @@
         <v>K09</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'K09',</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09',</v>
       </c>
     </row>
@@ -10209,11 +10357,11 @@
         <v>K10</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'K10',</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10',</v>
       </c>
     </row>
@@ -10229,11 +10377,11 @@
         <v>K11</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'K11',</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11',</v>
       </c>
     </row>
@@ -10249,11 +10397,11 @@
         <v>L12</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'L12',</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12',</v>
       </c>
     </row>
@@ -10269,11 +10417,11 @@
         <v>M12</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'M12',</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12',</v>
       </c>
     </row>
@@ -10289,11 +10437,11 @@
         <v>NAME*</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'NAME*',</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*',</v>
       </c>
     </row>
@@ -10309,11 +10457,11 @@
         <v>NCESID*</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'NCESID*',</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*',</v>
       </c>
     </row>
@@ -10329,11 +10477,11 @@
         <v>NONELSEC</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'NONELSEC',</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC',</v>
       </c>
     </row>
@@ -10349,11 +10497,11 @@
         <v>Q11</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'Q11',</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11',</v>
       </c>
     </row>
@@ -10369,11 +10517,11 @@
         <v>SCHLEV*</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'SCHLEV*',</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*',</v>
       </c>
     </row>
@@ -10389,11 +10537,11 @@
         <v>STATE*</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'STATE*',</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*',</v>
       </c>
     </row>
@@ -10409,11 +10557,11 @@
         <v>T02</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'T02',</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02',</v>
       </c>
     </row>
@@ -10429,11 +10577,11 @@
         <v>T99</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'T99',</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99',</v>
       </c>
     </row>
@@ -10449,11 +10597,11 @@
         <v>TCAPOUT</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'TCAPOUT',</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT',</v>
       </c>
     </row>
@@ -10469,11 +10617,11 @@
         <v>TCURELSC</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'TCURELSC',</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC',</v>
       </c>
     </row>
@@ -10489,11 +10637,11 @@
         <v>TCURINST</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'TCURINST',</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST',</v>
       </c>
     </row>
@@ -10509,11 +10657,11 @@
         <v>TCUROTH</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'TCUROTH',</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH',</v>
       </c>
     </row>
@@ -10529,11 +10677,11 @@
         <v>TCURSSVC</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'TCURSSVC',</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC',</v>
       </c>
     </row>
@@ -10549,11 +10697,11 @@
         <v>TFEDREV</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'TFEDREV',</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV',</v>
       </c>
     </row>
@@ -10569,11 +10717,11 @@
         <v>TLOCREV</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'TLOCREV',</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV',</v>
       </c>
     </row>
@@ -10589,11 +10737,11 @@
         <v>TOTALEXP</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'TOTALEXP',</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP',</v>
       </c>
     </row>
@@ -10609,11 +10757,11 @@
         <v>U11</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'U11',</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11',</v>
       </c>
     </row>
@@ -10629,11 +10777,11 @@
         <v>U22</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'U22',</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22',</v>
       </c>
     </row>
@@ -10649,11 +10797,11 @@
         <v>U30</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'U30',</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30',</v>
       </c>
     </row>
@@ -10669,11 +10817,11 @@
         <v>U50</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'U50',</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50',</v>
       </c>
     </row>
@@ -10689,11 +10837,11 @@
         <v>U97</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'U97',</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97',</v>
       </c>
     </row>
@@ -10709,11 +10857,11 @@
         <v>V10</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'V10',</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10',</v>
       </c>
     </row>
@@ -10729,11 +10877,11 @@
         <v>V12</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'V12',</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12',</v>
       </c>
     </row>
@@ -10749,11 +10897,11 @@
         <v>V14</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'V14',</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14',</v>
       </c>
     </row>
@@ -10769,11 +10917,11 @@
         <v>V16</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>'V16',</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16',</v>
       </c>
     </row>
@@ -10789,11 +10937,11 @@
         <v>V18</v>
       </c>
       <c r="F120" t="str">
-        <f t="shared" ref="F120:F142" si="2">"'"&amp;E120&amp;"',"</f>
+        <f t="shared" ref="F120:F142" si="4">"'"&amp;E120&amp;"',"</f>
         <v>'V18',</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" ref="G120:G142" si="3">G119&amp;F120</f>
+        <f t="shared" ref="G120:G142" si="5">G119&amp;F120</f>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18',</v>
       </c>
     </row>
@@ -10809,11 +10957,11 @@
         <v>V22</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V22',</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22',</v>
       </c>
     </row>
@@ -10829,11 +10977,11 @@
         <v>V24</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V24',</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24',</v>
       </c>
     </row>
@@ -10849,11 +10997,11 @@
         <v>V30</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V30',</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30',</v>
       </c>
     </row>
@@ -10869,11 +11017,11 @@
         <v>V32</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V32',</v>
       </c>
       <c r="G124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32',</v>
       </c>
     </row>
@@ -10889,11 +11037,11 @@
         <v>V33</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V33',</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33',</v>
       </c>
     </row>
@@ -10909,11 +11057,11 @@
         <v>V37</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V37',</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37',</v>
       </c>
     </row>
@@ -10929,11 +11077,11 @@
         <v>V38</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V38',</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38',</v>
       </c>
     </row>
@@ -10949,11 +11097,11 @@
         <v>V40</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V40',</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40',</v>
       </c>
     </row>
@@ -10969,11 +11117,11 @@
         <v>V45</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V45',</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45',</v>
       </c>
     </row>
@@ -10989,11 +11137,11 @@
         <v>V60</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V60',</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60',</v>
       </c>
     </row>
@@ -11009,11 +11157,11 @@
         <v>V65</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V65',</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65',</v>
       </c>
     </row>
@@ -11029,11 +11177,11 @@
         <v>V70</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V70',</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70',</v>
       </c>
     </row>
@@ -11049,11 +11197,11 @@
         <v>V75</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V75',</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75',</v>
       </c>
     </row>
@@ -11069,11 +11217,11 @@
         <v>V80</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V80',</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80',</v>
       </c>
     </row>
@@ -11089,11 +11237,11 @@
         <v>V85</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V85',</v>
       </c>
       <c r="G135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85',</v>
       </c>
     </row>
@@ -11109,11 +11257,11 @@
         <v>V90</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V90',</v>
       </c>
       <c r="G136" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90',</v>
       </c>
     </row>
@@ -11129,11 +11277,11 @@
         <v>V91</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V91',</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90','V91',</v>
       </c>
     </row>
@@ -11149,11 +11297,11 @@
         <v>V92</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'V92',</v>
       </c>
       <c r="G138" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90','V91','V92',</v>
       </c>
     </row>
@@ -11169,11 +11317,11 @@
         <v>W01</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'W01',</v>
       </c>
       <c r="G139" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90','V91','V92','W01',</v>
       </c>
     </row>
@@ -11189,11 +11337,11 @@
         <v>W31</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'W31',</v>
       </c>
       <c r="G140" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90','V91','V92','W01','W31',</v>
       </c>
     </row>
@@ -11209,11 +11357,11 @@
         <v>W61</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'W61',</v>
       </c>
       <c r="G141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90','V91','V92','W01','W31','W61',</v>
       </c>
     </row>
@@ -11229,11 +11377,11 @@
         <v>YRDATA*</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>'YRDATA*',</v>
       </c>
       <c r="G142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>'_19H','_21F','_31F','_41F','_61V','_66V','A07','A08','A09','A11','A13','A15','A20','A40','B10','B11','B12','B13','C01','C04','C05','C07','C08','C10','C11','C12','C13','C14','C15','C20','C24','C25','C35','C36','C38','C39','CBSA*','CONUM*','CSA*','D11','D23','F12','G15','I86','IDCENSUS*','J07','J08','J09','J10','J11','J12','J13','J14','J17','J40','J45','J90','J96','J97','J98','J99','K09','K10','K11','L12','M12','NAME*','NCESID*','NONELSEC','Q11','SCHLEV*','STATE*','T02','T99','TCAPOUT','TCURELSC','TCURINST','TCUROTH','TCURSSVC','TFEDREV','TLOCREV','TOTALEXP','U11','U22','U30','U50','U97','V10','V12','V14','V16','V18','V22','V24','V30','V32','V33','V37','V38','V40','V45','V60','V65','V70','V75','V80','V85','V90','V91','V92','W01','W31','W61','YRDATA*',</v>
       </c>
     </row>
@@ -11248,6 +11396,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4256B1D-6001-4407-B51E-0DC64C59F555}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView topLeftCell="A116" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -13521,6 +13670,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC09F4DD-4E15-4AC2-ABD5-09687815E848}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13904,6 +14054,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65454753-C424-4853-8BB7-6EEE95C64FF9}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -14698,7 +14849,7 @@
     <sortCondition descending="1" ref="B1:B32"/>
   </sortState>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14709,6 +14860,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0809E0-5460-42E1-9CA4-40646712A51E}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -14853,6 +15005,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631150A6-625A-4DF8-864D-F56EACE4A23E}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16851,6 +17004,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8572D127-4B0A-4116-AA41-3B81C4601F38}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18454,10 +18608,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DE68BF-3F96-4938-AD6E-D5A1D0E1465F}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
